--- a/resources/FullscreenV2.xlsx
+++ b/resources/FullscreenV2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhuismans/surfdrive/Promotie/12. STRATEGIC/Analyse 2.0/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5164F770-A038-D143-8069-209153360A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A365A937-BB1F-BF4C-AD88-408B1C44F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36360" yWindow="2920" windowWidth="36060" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="427">
   <si>
     <t>Organoid</t>
   </si>
@@ -95,20 +95,9 @@
     <t>conc_Vinorelbine</t>
   </si>
   <si>
-    <t>Volume (nL)
-DMSO normalization</t>
-  </si>
-  <si>
-    <t>Volume (nL)
-a+Tw normalization</t>
-  </si>
-  <si>
     <t>Total well volume (nL)</t>
   </si>
   <si>
-    <t>DMSO %</t>
-  </si>
-  <si>
     <t>xx</t>
   </si>
   <si>
@@ -1322,6 +1311,12 @@
   </si>
   <si>
     <t>conc_condition</t>
+  </si>
+  <si>
+    <t>DMSO</t>
+  </si>
+  <si>
+    <t>DMSO_pct</t>
   </si>
 </sst>
 </file>
@@ -1658,11 +1653,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="21" max="21" width="25.33203125" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1693,7 +1692,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -1726,27 +1725,27 @@
         <v>18</v>
       </c>
       <c r="U1" t="s">
+        <v>425</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1764,7 +1763,7 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1772,10 +1771,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1784,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1801,10 +1800,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1813,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1830,10 +1829,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1842,7 +1841,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J5">
         <v>10000.224713150001</v>
@@ -1865,10 +1864,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1877,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>10000.224713150001</v>
@@ -1900,10 +1899,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1912,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J7">
         <v>10000.224713150001</v>
@@ -1935,10 +1934,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1947,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J8">
         <v>1500.058</v>
@@ -1967,10 +1966,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1979,7 +1978,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J9">
         <v>1500.058</v>
@@ -1999,10 +1998,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2011,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J10">
         <v>1500.058</v>
@@ -2031,10 +2030,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2043,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J11">
         <v>1.999801999802</v>
@@ -2066,10 +2065,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2078,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J12">
         <v>1.999801999802</v>
@@ -2101,10 +2100,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2113,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J13">
         <v>1.999801999802</v>
@@ -2136,10 +2135,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2148,7 +2147,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>19.998019998019998</v>
@@ -2171,10 +2170,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2183,7 +2182,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>19.998019998019998</v>
@@ -2206,10 +2205,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2218,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>19.998019998019998</v>
@@ -2241,10 +2240,10 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2253,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>19.998019998019998</v>
@@ -2276,10 +2275,10 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2288,7 +2287,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>19.998019998019998</v>
@@ -2311,10 +2310,10 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2323,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J19">
         <v>19.998019998019998</v>
@@ -2346,10 +2345,10 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2358,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>19.998019998019998</v>
@@ -2381,10 +2380,10 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2393,7 +2392,7 @@
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>19.998019998019998</v>
@@ -2416,10 +2415,10 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2428,7 +2427,7 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>19.998019998019998</v>
@@ -2451,10 +2450,10 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2463,7 +2462,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J23">
         <v>0.59895059895059999</v>
@@ -2486,10 +2485,10 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2498,7 +2497,7 @@
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J24">
         <v>0.59895059895059999</v>
@@ -2521,10 +2520,10 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2533,7 +2532,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J25">
         <v>0.59895059895059999</v>
@@ -2556,10 +2555,10 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2568,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2576,10 +2575,10 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2588,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2605,10 +2604,10 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2617,7 +2616,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2634,10 +2633,10 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2646,7 +2645,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J29">
         <v>2213.630587222</v>
@@ -2669,10 +2668,10 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2681,7 +2680,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J30">
         <v>2213.630587222</v>
@@ -2704,10 +2703,10 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2716,7 +2715,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J31">
         <v>2213.630587222</v>
@@ -2739,10 +2738,10 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2751,7 +2750,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J32">
         <v>379.73249626130001</v>
@@ -2774,10 +2773,10 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2786,7 +2785,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J33">
         <v>379.73249626130001</v>
@@ -2809,10 +2808,10 @@
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2821,7 +2820,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J34">
         <v>379.73249626130001</v>
@@ -2844,10 +2843,10 @@
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2856,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J35">
         <v>0.63360063360060004</v>
@@ -2879,10 +2878,10 @@
     </row>
     <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2891,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J36">
         <v>0.63360063360060004</v>
@@ -2914,10 +2913,10 @@
     </row>
     <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2926,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J37">
         <v>0.63360063360060004</v>
@@ -2949,10 +2948,10 @@
     </row>
     <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2961,7 +2960,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>6.1380061380060003</v>
@@ -2984,10 +2983,10 @@
     </row>
     <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2996,7 +2995,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J39">
         <v>6.1380061380060003</v>
@@ -3019,10 +3018,10 @@
     </row>
     <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3031,7 +3030,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J40">
         <v>6.1380061380060003</v>
@@ -3054,10 +3053,10 @@
     </row>
     <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3066,7 +3065,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>6.1380061380060003</v>
@@ -3089,10 +3088,10 @@
     </row>
     <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3101,7 +3100,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>6.1380061380060003</v>
@@ -3124,10 +3123,10 @@
     </row>
     <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3136,7 +3135,7 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>6.1380061380060003</v>
@@ -3159,10 +3158,10 @@
     </row>
     <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3171,7 +3170,7 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>6.1380061380060003</v>
@@ -3194,10 +3193,10 @@
     </row>
     <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3206,7 +3205,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J45">
         <v>6.1380061380060003</v>
@@ -3229,10 +3228,10 @@
     </row>
     <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3241,7 +3240,7 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>6.1380061380060003</v>
@@ -3264,10 +3263,10 @@
     </row>
     <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3276,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J47">
         <v>0.21780021780020001</v>
@@ -3299,10 +3298,10 @@
     </row>
     <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3311,7 +3310,7 @@
         <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J48">
         <v>0.21780021780020001</v>
@@ -3334,10 +3333,10 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3346,7 +3345,7 @@
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J49">
         <v>0.21780021780020001</v>
@@ -3369,10 +3368,10 @@
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3381,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3389,10 +3388,10 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3401,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3418,10 +3417,10 @@
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3430,7 +3429,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3447,10 +3446,10 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3459,7 +3458,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J53">
         <v>489.81312504559997</v>
@@ -3482,10 +3481,10 @@
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3494,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J54">
         <v>489.81312504559997</v>
@@ -3517,10 +3516,10 @@
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3529,7 +3528,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J55">
         <v>489.81312504559997</v>
@@ -3552,10 +3551,10 @@
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3564,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J56">
         <v>96.121225335419993</v>
@@ -3587,10 +3586,10 @@
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3599,7 +3598,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J57">
         <v>96.121225335419993</v>
@@ -3622,10 +3621,10 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3634,7 +3633,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J58">
         <v>96.121225335419993</v>
@@ -3657,10 +3656,10 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3669,7 +3668,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J59">
         <v>0.1980001980002</v>
@@ -3692,10 +3691,10 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3704,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J60">
         <v>0.1980001980002</v>
@@ -3727,10 +3726,10 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3739,7 +3738,7 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J61">
         <v>0.1980001980002</v>
@@ -3762,10 +3761,10 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3774,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J62">
         <v>1.8810018810019999</v>
@@ -3797,10 +3796,10 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3809,7 +3808,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J63">
         <v>1.8810018810019999</v>
@@ -3832,10 +3831,10 @@
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3844,7 +3843,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>1.8810018810019999</v>
@@ -3867,10 +3866,10 @@
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3879,7 +3878,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.8810018810019999</v>
@@ -3902,10 +3901,10 @@
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3914,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>1.8810018810019999</v>
@@ -3937,10 +3936,10 @@
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3949,7 +3948,7 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>1.8810018810019999</v>
@@ -3972,10 +3971,10 @@
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3984,7 +3983,7 @@
         <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J68">
         <v>1.8810018810019999</v>
@@ -4007,10 +4006,10 @@
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -4019,7 +4018,7 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>1.8810018810019999</v>
@@ -4042,10 +4041,10 @@
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4054,7 +4053,7 @@
         <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J70">
         <v>1.8810018810019999</v>
@@ -4077,10 +4076,10 @@
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C71" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4089,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J71">
         <v>7.9200079200080001E-2</v>
@@ -4112,10 +4111,10 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4124,7 +4123,7 @@
         <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J72">
         <v>7.9200079200080001E-2</v>
@@ -4147,10 +4146,10 @@
     </row>
     <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4159,7 +4158,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J73">
         <v>7.9200079200080001E-2</v>
@@ -4182,10 +4181,10 @@
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4194,7 +4193,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4202,10 +4201,10 @@
     </row>
     <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4214,7 +4213,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4231,10 +4230,10 @@
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4243,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4260,10 +4259,10 @@
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4272,7 +4271,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J77">
         <v>108.2459944852</v>
@@ -4295,10 +4294,10 @@
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4307,7 +4306,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J78">
         <v>108.2459944852</v>
@@ -4330,10 +4329,10 @@
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -4342,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J79">
         <v>108.2459944852</v>
@@ -4365,10 +4364,10 @@
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -4377,7 +4376,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J80">
         <v>24.375238960659999</v>
@@ -4400,10 +4399,10 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -4412,7 +4411,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J81">
         <v>24.375238960659999</v>
@@ -4435,10 +4434,10 @@
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C82" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -4447,7 +4446,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J82">
         <v>24.375238960659999</v>
@@ -4470,10 +4469,10 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -4482,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J83">
         <v>6.4350064350059993E-2</v>
@@ -4505,10 +4504,10 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -4517,7 +4516,7 @@
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J84">
         <v>6.4350064350059993E-2</v>
@@ -4540,10 +4539,10 @@
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -4552,7 +4551,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J85">
         <v>6.4350064350059993E-2</v>
@@ -4575,10 +4574,10 @@
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -4587,7 +4586,7 @@
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J86">
         <v>0.5742005742006</v>
@@ -4610,10 +4609,10 @@
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4622,7 +4621,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J87">
         <v>0.5742005742006</v>
@@ -4645,10 +4644,10 @@
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -4657,7 +4656,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J88">
         <v>0.5742005742006</v>
@@ -4680,10 +4679,10 @@
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -4692,7 +4691,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>0.5742005742006</v>
@@ -4715,10 +4714,10 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -4727,7 +4726,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>0.5742005742006</v>
@@ -4750,10 +4749,10 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -4762,7 +4761,7 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>0.5742005742006</v>
@@ -4785,10 +4784,10 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -4797,7 +4796,7 @@
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J92">
         <v>0.5742005742006</v>
@@ -4820,10 +4819,10 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -4832,7 +4831,7 @@
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J93">
         <v>0.5742005742006</v>
@@ -4855,10 +4854,10 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4867,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J94">
         <v>0.5742005742006</v>
@@ -4890,10 +4889,10 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4902,7 +4901,7 @@
         <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J95">
         <v>2.8710028710029999E-2</v>
@@ -4925,10 +4924,10 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -4937,7 +4936,7 @@
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J96">
         <v>2.8710028710029999E-2</v>
@@ -4960,10 +4959,10 @@
     </row>
     <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -4972,7 +4971,7 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J97">
         <v>2.8710028710029999E-2</v>
@@ -4995,10 +4994,10 @@
     </row>
     <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -5007,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -5015,10 +5014,10 @@
     </row>
     <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -5027,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5044,10 +5043,10 @@
     </row>
     <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -5056,7 +5055,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5073,10 +5072,10 @@
     </row>
     <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -5085,7 +5084,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J101">
         <v>24.355183687989999</v>
@@ -5108,10 +5107,10 @@
     </row>
     <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5120,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J102">
         <v>24.355183687989999</v>
@@ -5143,10 +5142,10 @@
     </row>
     <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -5155,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J103">
         <v>24.355183687989999</v>
@@ -5178,10 +5177,10 @@
     </row>
     <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -5190,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J104">
         <v>6.1320315408169996</v>
@@ -5213,10 +5212,10 @@
     </row>
     <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -5225,7 +5224,7 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J105">
         <v>6.1320315408169996</v>
@@ -5248,10 +5247,10 @@
     </row>
     <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C106" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -5260,7 +5259,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J106">
         <v>6.1320315408169996</v>
@@ -5283,10 +5282,10 @@
     </row>
     <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -5295,7 +5294,7 @@
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J107">
         <v>2.079002079002E-2</v>
@@ -5318,10 +5317,10 @@
     </row>
     <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -5330,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="I108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J108">
         <v>2.079002079002E-2</v>
@@ -5353,10 +5352,10 @@
     </row>
     <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -5365,7 +5364,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J109">
         <v>2.079002079002E-2</v>
@@ -5388,10 +5387,10 @@
     </row>
     <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -5400,7 +5399,7 @@
         <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J110">
         <v>0.17325017325020001</v>
@@ -5423,10 +5422,10 @@
     </row>
     <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -5435,7 +5434,7 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J111">
         <v>0.17325017325020001</v>
@@ -5458,10 +5457,10 @@
     </row>
     <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -5470,7 +5469,7 @@
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J112">
         <v>0.17325017325020001</v>
@@ -5493,10 +5492,10 @@
     </row>
     <row r="113" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -5505,7 +5504,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>0.17325017325020001</v>
@@ -5528,10 +5527,10 @@
     </row>
     <row r="114" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -5540,7 +5539,7 @@
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>0.17325017325020001</v>
@@ -5563,10 +5562,10 @@
     </row>
     <row r="115" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -5575,7 +5574,7 @@
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>0.17325017325020001</v>
@@ -5598,10 +5597,10 @@
     </row>
     <row r="116" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -5610,7 +5609,7 @@
         <v>19</v>
       </c>
       <c r="I116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J116">
         <v>0.17325017325020001</v>
@@ -5633,10 +5632,10 @@
     </row>
     <row r="117" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -5645,7 +5644,7 @@
         <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J117">
         <v>0.17325017325020001</v>
@@ -5668,10 +5667,10 @@
     </row>
     <row r="118" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -5680,7 +5679,7 @@
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J118">
         <v>0.17325017325020001</v>
@@ -5703,10 +5702,10 @@
     </row>
     <row r="119" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -5715,7 +5714,7 @@
         <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J119">
         <v>1.039501039501E-2</v>
@@ -5738,10 +5737,10 @@
     </row>
     <row r="120" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -5750,7 +5749,7 @@
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J120">
         <v>1.039501039501E-2</v>
@@ -5773,10 +5772,10 @@
     </row>
     <row r="121" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -5785,7 +5784,7 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J121">
         <v>1.039501039501E-2</v>
@@ -5808,10 +5807,10 @@
     </row>
     <row r="122" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5820,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -5828,10 +5827,10 @@
     </row>
     <row r="123" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -5840,7 +5839,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5857,10 +5856,10 @@
     </row>
     <row r="124" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D124">
         <v>6</v>
@@ -5869,7 +5868,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5886,10 +5885,10 @@
     </row>
     <row r="125" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5898,7 +5897,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J125">
         <v>5.3156487660250002</v>
@@ -5921,10 +5920,10 @@
     </row>
     <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D126">
         <v>6</v>
@@ -5933,7 +5932,7 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J126">
         <v>5.3156487660250002</v>
@@ -5956,10 +5955,10 @@
     </row>
     <row r="127" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -5968,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J127">
         <v>5.3156487660250002</v>
@@ -5991,10 +5990,10 @@
     </row>
     <row r="128" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -6003,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J128">
         <v>1.533028756412</v>
@@ -6026,10 +6025,10 @@
     </row>
     <row r="129" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -6038,7 +6037,7 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J129">
         <v>1.533028756412</v>
@@ -6061,10 +6060,10 @@
     </row>
     <row r="130" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -6073,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J130">
         <v>1.533028756412</v>
@@ -6096,10 +6095,10 @@
     </row>
     <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C131" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -6108,7 +6107,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J131">
         <v>6.9300069300070001E-3</v>
@@ -6131,10 +6130,10 @@
     </row>
     <row r="132" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C132" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -6143,7 +6142,7 @@
         <v>11</v>
       </c>
       <c r="I132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J132">
         <v>6.9300069300070001E-3</v>
@@ -6166,10 +6165,10 @@
     </row>
     <row r="133" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C133" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -6178,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J133">
         <v>6.9300069300070001E-3</v>
@@ -6201,10 +6200,10 @@
     </row>
     <row r="134" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C134" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6213,7 +6212,7 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J134">
         <v>5.4450054450050002E-2</v>
@@ -6236,10 +6235,10 @@
     </row>
     <row r="135" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6248,7 +6247,7 @@
         <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>5.4450054450050002E-2</v>
@@ -6271,10 +6270,10 @@
     </row>
     <row r="136" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -6283,7 +6282,7 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J136">
         <v>5.4450054450050002E-2</v>
@@ -6306,10 +6305,10 @@
     </row>
     <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6318,7 +6317,7 @@
         <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>5.4450054450050002E-2</v>
@@ -6341,10 +6340,10 @@
     </row>
     <row r="138" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6353,7 +6352,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J138">
         <v>5.4450054450050002E-2</v>
@@ -6376,10 +6375,10 @@
     </row>
     <row r="139" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -6388,7 +6387,7 @@
         <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>5.4450054450050002E-2</v>
@@ -6411,10 +6410,10 @@
     </row>
     <row r="140" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -6423,7 +6422,7 @@
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J140">
         <v>5.4450054450050002E-2</v>
@@ -6446,10 +6445,10 @@
     </row>
     <row r="141" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -6458,7 +6457,7 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J141">
         <v>5.4450054450050002E-2</v>
@@ -6481,10 +6480,10 @@
     </row>
     <row r="142" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -6493,7 +6492,7 @@
         <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J142">
         <v>5.4450054450050002E-2</v>
@@ -6516,10 +6515,10 @@
     </row>
     <row r="143" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C143" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -6528,7 +6527,7 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J143">
         <v>3.7125037125040001E-3</v>
@@ -6551,10 +6550,10 @@
     </row>
     <row r="144" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -6563,7 +6562,7 @@
         <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J144">
         <v>3.7125037125040001E-3</v>
@@ -6586,10 +6585,10 @@
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6598,7 +6597,7 @@
         <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J145">
         <v>3.7125037125040001E-3</v>
@@ -6621,10 +6620,10 @@
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -6633,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6641,10 +6640,10 @@
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6653,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6670,10 +6669,10 @@
     </row>
     <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -6682,7 +6681,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6699,10 +6698,10 @@
     </row>
     <row r="149" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -6711,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J149">
         <v>1.169444348793</v>
@@ -6734,10 +6733,10 @@
     </row>
     <row r="150" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C150" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -6746,7 +6745,7 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J150">
         <v>1.169444348793</v>
@@ -6769,10 +6768,10 @@
     </row>
     <row r="151" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C151" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -6781,7 +6780,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J151">
         <v>1.169444348793</v>
@@ -6804,10 +6803,10 @@
     </row>
     <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C152" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -6816,7 +6815,7 @@
         <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J152">
         <v>0.39448250935169998</v>
@@ -6839,10 +6838,10 @@
     </row>
     <row r="153" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -6851,7 +6850,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J153">
         <v>0.39448250935169998</v>
@@ -6874,10 +6873,10 @@
     </row>
     <row r="154" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -6886,7 +6885,7 @@
         <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J154">
         <v>0.39448250935169998</v>
@@ -6909,10 +6908,10 @@
     </row>
     <row r="155" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C155" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -6921,7 +6920,7 @@
         <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J155">
         <v>1.980001980002E-3</v>
@@ -6944,10 +6943,10 @@
     </row>
     <row r="156" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -6956,7 +6955,7 @@
         <v>11</v>
       </c>
       <c r="I156" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J156">
         <v>1.980001980002E-3</v>
@@ -6979,10 +6978,10 @@
     </row>
     <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -6991,7 +6990,7 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J157">
         <v>1.980001980002E-3</v>
@@ -7014,10 +7013,10 @@
     </row>
     <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -7026,7 +7025,7 @@
         <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J158">
         <v>1.485001485001E-2</v>
@@ -7049,10 +7048,10 @@
     </row>
     <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C159" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -7061,7 +7060,7 @@
         <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J159">
         <v>1.485001485001E-2</v>
@@ -7084,10 +7083,10 @@
     </row>
     <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D160">
         <v>7</v>
@@ -7096,7 +7095,7 @@
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J160">
         <v>1.485001485001E-2</v>
@@ -7119,10 +7118,10 @@
     </row>
     <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D161">
         <v>7</v>
@@ -7131,7 +7130,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>1.485001485001E-2</v>
@@ -7154,10 +7153,10 @@
     </row>
     <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -7166,7 +7165,7 @@
         <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J162">
         <v>1.485001485001E-2</v>
@@ -7189,10 +7188,10 @@
     </row>
     <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -7201,7 +7200,7 @@
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.485001485001E-2</v>
@@ -7224,10 +7223,10 @@
     </row>
     <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -7236,7 +7235,7 @@
         <v>19</v>
       </c>
       <c r="I164" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J164">
         <v>1.485001485001E-2</v>
@@ -7259,10 +7258,10 @@
     </row>
     <row r="165" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C165" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -7271,7 +7270,7 @@
         <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J165">
         <v>1.485001485001E-2</v>
@@ -7294,10 +7293,10 @@
     </row>
     <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C166" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7306,7 +7305,7 @@
         <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J166">
         <v>1.485001485001E-2</v>
@@ -7329,10 +7328,10 @@
     </row>
     <row r="167" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C167" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -7341,7 +7340,7 @@
         <v>22</v>
       </c>
       <c r="I167" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J167">
         <v>1.485001485001E-3</v>
@@ -7364,10 +7363,10 @@
     </row>
     <row r="168" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C168" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -7376,7 +7375,7 @@
         <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J168">
         <v>1.485001485001E-3</v>
@@ -7399,10 +7398,10 @@
     </row>
     <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D169">
         <v>7</v>
@@ -7411,7 +7410,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J169">
         <v>1.485001485001E-3</v>
@@ -7434,10 +7433,10 @@
     </row>
     <row r="170" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C170" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D170">
         <v>8</v>
@@ -7446,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7454,10 +7453,10 @@
     </row>
     <row r="171" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C171" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D171">
         <v>8</v>
@@ -7466,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7483,10 +7482,10 @@
     </row>
     <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D172">
         <v>8</v>
@@ -7495,7 +7494,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7512,10 +7511,10 @@
     </row>
     <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C173" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D173">
         <v>8</v>
@@ -7524,7 +7523,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J173">
         <v>0.26578288803889999</v>
@@ -7547,10 +7546,10 @@
     </row>
     <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C174" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -7559,7 +7558,7 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J174">
         <v>0.26578288803889999</v>
@@ -7582,10 +7581,10 @@
     </row>
     <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C175" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D175">
         <v>8</v>
@@ -7594,7 +7593,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J175">
         <v>0.26578288803889999</v>
@@ -7617,10 +7616,10 @@
     </row>
     <row r="176" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D176">
         <v>8</v>
@@ -7629,7 +7628,7 @@
         <v>7</v>
       </c>
       <c r="I176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J176">
         <v>9.9373543271700004E-2</v>
@@ -7652,10 +7651,10 @@
     </row>
     <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C177" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D177">
         <v>8</v>
@@ -7664,7 +7663,7 @@
         <v>8</v>
       </c>
       <c r="I177" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J177">
         <v>9.9373543271700004E-2</v>
@@ -7687,10 +7686,10 @@
     </row>
     <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D178">
         <v>8</v>
@@ -7699,7 +7698,7 @@
         <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J178">
         <v>9.9373543271700004E-2</v>
@@ -7722,10 +7721,10 @@
     </row>
     <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -7734,7 +7733,7 @@
         <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J179">
         <v>6.435006435006E-4</v>
@@ -7757,10 +7756,10 @@
     </row>
     <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -7769,7 +7768,7 @@
         <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J180">
         <v>6.435006435006E-4</v>
@@ -7792,10 +7791,10 @@
     </row>
     <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C181" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D181">
         <v>8</v>
@@ -7804,7 +7803,7 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J181">
         <v>6.435006435006E-4</v>
@@ -7827,10 +7826,10 @@
     </row>
     <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -7839,7 +7838,7 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J182">
         <v>4.950004950005E-3</v>
@@ -7862,10 +7861,10 @@
     </row>
     <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -7874,7 +7873,7 @@
         <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J183">
         <v>4.950004950005E-3</v>
@@ -7897,10 +7896,10 @@
     </row>
     <row r="184" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -7909,7 +7908,7 @@
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J184">
         <v>4.950004950005E-3</v>
@@ -7932,10 +7931,10 @@
     </row>
     <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C185" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D185">
         <v>8</v>
@@ -7944,7 +7943,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J185">
         <v>4.950004950005E-3</v>
@@ -7967,10 +7966,10 @@
     </row>
     <row r="186" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D186">
         <v>8</v>
@@ -7979,7 +7978,7 @@
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J186">
         <v>4.950004950005E-3</v>
@@ -8002,10 +8001,10 @@
     </row>
     <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C187" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D187">
         <v>8</v>
@@ -8014,7 +8013,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>4.950004950005E-3</v>
@@ -8037,10 +8036,10 @@
     </row>
     <row r="188" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C188" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D188">
         <v>8</v>
@@ -8049,7 +8048,7 @@
         <v>19</v>
       </c>
       <c r="I188" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J188">
         <v>4.950004950005E-3</v>
@@ -8072,10 +8071,10 @@
     </row>
     <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C189" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -8084,7 +8083,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J189">
         <v>4.950004950005E-3</v>
@@ -8107,10 +8106,10 @@
     </row>
     <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C190" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D190">
         <v>8</v>
@@ -8119,7 +8118,7 @@
         <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J190">
         <v>4.950004950005E-3</v>
@@ -8142,10 +8141,10 @@
     </row>
     <row r="191" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C191" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D191">
         <v>8</v>
@@ -8154,7 +8153,7 @@
         <v>22</v>
       </c>
       <c r="I191" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J191">
         <v>4.950004950005E-4</v>
@@ -8177,10 +8176,10 @@
     </row>
     <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C192" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D192">
         <v>8</v>
@@ -8189,7 +8188,7 @@
         <v>23</v>
       </c>
       <c r="I192" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J192">
         <v>4.950004950005E-4</v>
@@ -8212,10 +8211,10 @@
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -8224,7 +8223,7 @@
         <v>24</v>
       </c>
       <c r="I193" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J193">
         <v>4.950004950005E-4</v>
@@ -8247,10 +8246,10 @@
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C194" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -8259,7 +8258,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J194">
         <v>19.998019998019998</v>
@@ -8282,10 +8281,10 @@
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C195" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D195">
         <v>9</v>
@@ -8294,7 +8293,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J195">
         <v>19.998019998019998</v>
@@ -8317,10 +8316,10 @@
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -8329,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J196">
         <v>19.998019998019998</v>
@@ -8352,10 +8351,10 @@
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C197" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -8364,7 +8363,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J197">
         <v>19.998019998019998</v>
@@ -8387,10 +8386,10 @@
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D198">
         <v>9</v>
@@ -8399,7 +8398,7 @@
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J198">
         <v>19.998019998019998</v>
@@ -8422,10 +8421,10 @@
     </row>
     <row r="199" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C199" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -8434,7 +8433,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J199">
         <v>19.998019998019998</v>
@@ -8457,10 +8456,10 @@
     </row>
     <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C200" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D200">
         <v>9</v>
@@ -8469,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J200">
         <v>19.998019998019998</v>
@@ -8492,10 +8491,10 @@
     </row>
     <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D201">
         <v>9</v>
@@ -8504,7 +8503,7 @@
         <v>8</v>
       </c>
       <c r="I201" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J201">
         <v>19.998019998019998</v>
@@ -8527,10 +8526,10 @@
     </row>
     <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C202" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -8539,7 +8538,7 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J202">
         <v>19.998019998019998</v>
@@ -8562,10 +8561,10 @@
     </row>
     <row r="203" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C203" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D203">
         <v>9</v>
@@ -8574,7 +8573,7 @@
         <v>10</v>
       </c>
       <c r="I203" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J203">
         <v>1.999801999802</v>
@@ -8597,10 +8596,10 @@
     </row>
     <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C204" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D204">
         <v>9</v>
@@ -8609,7 +8608,7 @@
         <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J204">
         <v>1.999801999802</v>
@@ -8632,10 +8631,10 @@
     </row>
     <row r="205" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D205">
         <v>9</v>
@@ -8644,7 +8643,7 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J205">
         <v>1.999801999802</v>
@@ -8667,10 +8666,10 @@
     </row>
     <row r="206" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C206" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D206">
         <v>9</v>
@@ -8679,7 +8678,7 @@
         <v>13</v>
       </c>
       <c r="I206" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J206">
         <v>84.942000849419998</v>
@@ -8702,10 +8701,10 @@
     </row>
     <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C207" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -8714,7 +8713,7 @@
         <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J207">
         <v>84.942000849419998</v>
@@ -8737,10 +8736,10 @@
     </row>
     <row r="208" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D208">
         <v>9</v>
@@ -8749,7 +8748,7 @@
         <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J208">
         <v>84.942000849419998</v>
@@ -8772,10 +8771,10 @@
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D209">
         <v>9</v>
@@ -8784,7 +8783,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J209">
         <v>0.59895059895059999</v>
@@ -8810,10 +8809,10 @@
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -8822,7 +8821,7 @@
         <v>17</v>
       </c>
       <c r="I210" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J210">
         <v>0.59895059895059999</v>
@@ -8848,10 +8847,10 @@
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C211" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D211">
         <v>9</v>
@@ -8860,7 +8859,7 @@
         <v>18</v>
       </c>
       <c r="I211" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J211">
         <v>0.59895059895059999</v>
@@ -8886,10 +8885,10 @@
     </row>
     <row r="212" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D212">
         <v>9</v>
@@ -8898,7 +8897,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J212">
         <v>84.942084942080001</v>
@@ -8921,10 +8920,10 @@
     </row>
     <row r="213" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -8933,7 +8932,7 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J213">
         <v>84.942084942080001</v>
@@ -8956,10 +8955,10 @@
     </row>
     <row r="214" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D214">
         <v>9</v>
@@ -8968,7 +8967,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J214">
         <v>84.942084942080001</v>
@@ -8991,10 +8990,10 @@
     </row>
     <row r="215" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D215">
         <v>9</v>
@@ -9003,7 +9002,7 @@
         <v>22</v>
       </c>
       <c r="I215" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J215">
         <v>0.99990099990100001</v>
@@ -9026,10 +9025,10 @@
     </row>
     <row r="216" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C216" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D216">
         <v>9</v>
@@ -9038,7 +9037,7 @@
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J216">
         <v>0.99990099990100001</v>
@@ -9061,10 +9060,10 @@
     </row>
     <row r="217" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -9073,7 +9072,7 @@
         <v>24</v>
       </c>
       <c r="I217" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J217">
         <v>0.99990099990100001</v>
@@ -9096,10 +9095,10 @@
     </row>
     <row r="218" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D218">
         <v>10</v>
@@ -9108,7 +9107,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J218">
         <v>6.1380061380060003</v>
@@ -9131,10 +9130,10 @@
     </row>
     <row r="219" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C219" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D219">
         <v>10</v>
@@ -9143,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J219">
         <v>6.1380061380060003</v>
@@ -9166,10 +9165,10 @@
     </row>
     <row r="220" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C220" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D220">
         <v>10</v>
@@ -9178,7 +9177,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J220">
         <v>6.1380061380060003</v>
@@ -9201,10 +9200,10 @@
     </row>
     <row r="221" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C221" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D221">
         <v>10</v>
@@ -9213,7 +9212,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J221">
         <v>6.1380061380060003</v>
@@ -9236,10 +9235,10 @@
     </row>
     <row r="222" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C222" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -9248,7 +9247,7 @@
         <v>5</v>
       </c>
       <c r="I222" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J222">
         <v>6.1380061380060003</v>
@@ -9271,10 +9270,10 @@
     </row>
     <row r="223" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C223" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D223">
         <v>10</v>
@@ -9283,7 +9282,7 @@
         <v>6</v>
       </c>
       <c r="I223" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J223">
         <v>6.1380061380060003</v>
@@ -9306,10 +9305,10 @@
     </row>
     <row r="224" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C224" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D224">
         <v>10</v>
@@ -9318,7 +9317,7 @@
         <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J224">
         <v>6.1380061380060003</v>
@@ -9341,10 +9340,10 @@
     </row>
     <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D225">
         <v>10</v>
@@ -9353,7 +9352,7 @@
         <v>8</v>
       </c>
       <c r="I225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J225">
         <v>6.1380061380060003</v>
@@ -9376,10 +9375,10 @@
     </row>
     <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D226">
         <v>10</v>
@@ -9388,7 +9387,7 @@
         <v>9</v>
       </c>
       <c r="I226" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J226">
         <v>6.1380061380060003</v>
@@ -9411,10 +9410,10 @@
     </row>
     <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D227">
         <v>10</v>
@@ -9423,7 +9422,7 @@
         <v>10</v>
       </c>
       <c r="I227" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J227">
         <v>0.63360063360060004</v>
@@ -9446,10 +9445,10 @@
     </row>
     <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D228">
         <v>10</v>
@@ -9458,7 +9457,7 @@
         <v>11</v>
       </c>
       <c r="I228" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J228">
         <v>0.63360063360060004</v>
@@ -9481,10 +9480,10 @@
     </row>
     <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D229">
         <v>10</v>
@@ -9493,7 +9492,7 @@
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J229">
         <v>0.63360063360060004</v>
@@ -9516,10 +9515,10 @@
     </row>
     <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D230">
         <v>10</v>
@@ -9528,7 +9527,7 @@
         <v>13</v>
       </c>
       <c r="I230" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J230">
         <v>21.087021087019998</v>
@@ -9551,10 +9550,10 @@
     </row>
     <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -9563,7 +9562,7 @@
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J231">
         <v>21.087021087019998</v>
@@ -9586,10 +9585,10 @@
     </row>
     <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D232">
         <v>10</v>
@@ -9598,7 +9597,7 @@
         <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J232">
         <v>21.087021087019998</v>
@@ -9621,10 +9620,10 @@
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -9633,7 +9632,7 @@
         <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J233">
         <v>0.21780021780020001</v>
@@ -9659,10 +9658,10 @@
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -9671,7 +9670,7 @@
         <v>17</v>
       </c>
       <c r="I234" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J234">
         <v>0.21780021780020001</v>
@@ -9697,10 +9696,10 @@
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D235">
         <v>10</v>
@@ -9709,7 +9708,7 @@
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J235">
         <v>0.21780021780020001</v>
@@ -9735,10 +9734,10 @@
     </row>
     <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D236">
         <v>10</v>
@@ -9747,7 +9746,7 @@
         <v>19</v>
       </c>
       <c r="I236" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J236">
         <v>21.087021087019998</v>
@@ -9770,10 +9769,10 @@
     </row>
     <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -9782,7 +9781,7 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J237">
         <v>21.087021087019998</v>
@@ -9805,10 +9804,10 @@
     </row>
     <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D238">
         <v>10</v>
@@ -9817,7 +9816,7 @@
         <v>21</v>
       </c>
       <c r="I238" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J238">
         <v>21.087021087019998</v>
@@ -9840,10 +9839,10 @@
     </row>
     <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D239">
         <v>10</v>
@@ -9852,7 +9851,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J239">
         <v>0.33660033660029998</v>
@@ -9875,10 +9874,10 @@
     </row>
     <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C240" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D240">
         <v>10</v>
@@ -9887,7 +9886,7 @@
         <v>23</v>
       </c>
       <c r="I240" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J240">
         <v>0.33660033660029998</v>
@@ -9910,10 +9909,10 @@
     </row>
     <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D241">
         <v>10</v>
@@ -9922,7 +9921,7 @@
         <v>24</v>
       </c>
       <c r="I241" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J241">
         <v>0.33660033660029998</v>
@@ -9945,10 +9944,10 @@
     </row>
     <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C242" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D242">
         <v>11</v>
@@ -9957,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J242">
         <v>1.8810018810019999</v>
@@ -9980,10 +9979,10 @@
     </row>
     <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C243" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D243">
         <v>11</v>
@@ -9992,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J243">
         <v>1.8810018810019999</v>
@@ -10015,10 +10014,10 @@
     </row>
     <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C244" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D244">
         <v>11</v>
@@ -10027,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J244">
         <v>1.8810018810019999</v>
@@ -10050,10 +10049,10 @@
     </row>
     <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D245">
         <v>11</v>
@@ -10062,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J245">
         <v>1.8810018810019999</v>
@@ -10085,10 +10084,10 @@
     </row>
     <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D246">
         <v>11</v>
@@ -10097,7 +10096,7 @@
         <v>5</v>
       </c>
       <c r="I246" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J246">
         <v>1.8810018810019999</v>
@@ -10120,10 +10119,10 @@
     </row>
     <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D247">
         <v>11</v>
@@ -10132,7 +10131,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J247">
         <v>1.8810018810019999</v>
@@ -10155,10 +10154,10 @@
     </row>
     <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D248">
         <v>11</v>
@@ -10167,7 +10166,7 @@
         <v>7</v>
       </c>
       <c r="I248" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J248">
         <v>1.8810018810019999</v>
@@ -10190,10 +10189,10 @@
     </row>
     <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D249">
         <v>11</v>
@@ -10202,7 +10201,7 @@
         <v>8</v>
       </c>
       <c r="I249" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J249">
         <v>1.8810018810019999</v>
@@ -10225,10 +10224,10 @@
     </row>
     <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D250">
         <v>11</v>
@@ -10237,7 +10236,7 @@
         <v>9</v>
       </c>
       <c r="I250" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J250">
         <v>1.8810018810019999</v>
@@ -10260,10 +10259,10 @@
     </row>
     <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D251">
         <v>11</v>
@@ -10272,7 +10271,7 @@
         <v>10</v>
       </c>
       <c r="I251" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J251">
         <v>0.1980001980002</v>
@@ -10295,10 +10294,10 @@
     </row>
     <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C252" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D252">
         <v>11</v>
@@ -10307,7 +10306,7 @@
         <v>11</v>
       </c>
       <c r="I252" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J252">
         <v>0.1980001980002</v>
@@ -10330,10 +10329,10 @@
     </row>
     <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -10342,7 +10341,7 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J253">
         <v>0.1980001980002</v>
@@ -10365,10 +10364,10 @@
     </row>
     <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D254">
         <v>11</v>
@@ -10377,7 +10376,7 @@
         <v>13</v>
       </c>
       <c r="I254" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J254">
         <v>5.2470052470050002</v>
@@ -10400,10 +10399,10 @@
     </row>
     <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D255">
         <v>11</v>
@@ -10412,7 +10411,7 @@
         <v>14</v>
       </c>
       <c r="I255" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J255">
         <v>5.2470052470050002</v>
@@ -10435,10 +10434,10 @@
     </row>
     <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C256" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D256">
         <v>11</v>
@@ -10447,7 +10446,7 @@
         <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J256">
         <v>5.2470052470050002</v>
@@ -10470,10 +10469,10 @@
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C257" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D257">
         <v>11</v>
@@ -10482,7 +10481,7 @@
         <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J257">
         <v>7.9200079200080001E-2</v>
@@ -10508,10 +10507,10 @@
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C258" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D258">
         <v>11</v>
@@ -10520,7 +10519,7 @@
         <v>17</v>
       </c>
       <c r="I258" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J258">
         <v>7.9200079200080001E-2</v>
@@ -10546,10 +10545,10 @@
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C259" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D259">
         <v>11</v>
@@ -10558,7 +10557,7 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J259">
         <v>7.9200079200080001E-2</v>
@@ -10584,10 +10583,10 @@
     </row>
     <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D260">
         <v>11</v>
@@ -10596,7 +10595,7 @@
         <v>19</v>
       </c>
       <c r="I260" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J260">
         <v>5.2470052470050002</v>
@@ -10619,10 +10618,10 @@
     </row>
     <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D261">
         <v>11</v>
@@ -10631,7 +10630,7 @@
         <v>20</v>
       </c>
       <c r="I261" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J261">
         <v>5.2470052470050002</v>
@@ -10654,10 +10653,10 @@
     </row>
     <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -10666,7 +10665,7 @@
         <v>21</v>
       </c>
       <c r="I262" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J262">
         <v>5.2470052470050002</v>
@@ -10689,10 +10688,10 @@
     </row>
     <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D263">
         <v>11</v>
@@ -10701,7 +10700,7 @@
         <v>22</v>
       </c>
       <c r="I263" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J263">
         <v>0.1188001188001</v>
@@ -10724,10 +10723,10 @@
     </row>
     <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D264">
         <v>11</v>
@@ -10736,7 +10735,7 @@
         <v>23</v>
       </c>
       <c r="I264" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J264">
         <v>0.1188001188001</v>
@@ -10759,10 +10758,10 @@
     </row>
     <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D265">
         <v>11</v>
@@ -10771,7 +10770,7 @@
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J265">
         <v>0.1188001188001</v>
@@ -10794,10 +10793,10 @@
     </row>
     <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D266">
         <v>12</v>
@@ -10806,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J266">
         <v>0.5742005742006</v>
@@ -10829,10 +10828,10 @@
     </row>
     <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C267" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D267">
         <v>12</v>
@@ -10841,7 +10840,7 @@
         <v>2</v>
       </c>
       <c r="I267" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J267">
         <v>0.5742005742006</v>
@@ -10864,10 +10863,10 @@
     </row>
     <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D268">
         <v>12</v>
@@ -10876,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J268">
         <v>0.5742005742006</v>
@@ -10899,10 +10898,10 @@
     </row>
     <row r="269" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -10911,7 +10910,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J269">
         <v>0.5742005742006</v>
@@ -10934,10 +10933,10 @@
     </row>
     <row r="270" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D270">
         <v>12</v>
@@ -10946,7 +10945,7 @@
         <v>5</v>
       </c>
       <c r="I270" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J270">
         <v>0.5742005742006</v>
@@ -10969,10 +10968,10 @@
     </row>
     <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D271">
         <v>12</v>
@@ -10981,7 +10980,7 @@
         <v>6</v>
       </c>
       <c r="I271" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J271">
         <v>0.5742005742006</v>
@@ -11004,10 +11003,10 @@
     </row>
     <row r="272" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C272" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D272">
         <v>12</v>
@@ -11016,7 +11015,7 @@
         <v>7</v>
       </c>
       <c r="I272" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J272">
         <v>0.5742005742006</v>
@@ -11039,10 +11038,10 @@
     </row>
     <row r="273" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C273" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -11051,7 +11050,7 @@
         <v>8</v>
       </c>
       <c r="I273" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J273">
         <v>0.5742005742006</v>
@@ -11074,10 +11073,10 @@
     </row>
     <row r="274" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D274">
         <v>12</v>
@@ -11086,7 +11085,7 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J274">
         <v>0.5742005742006</v>
@@ -11109,10 +11108,10 @@
     </row>
     <row r="275" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D275">
         <v>12</v>
@@ -11121,7 +11120,7 @@
         <v>10</v>
       </c>
       <c r="I275" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J275">
         <v>6.4350064350059993E-2</v>
@@ -11144,10 +11143,10 @@
     </row>
     <row r="276" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D276">
         <v>12</v>
@@ -11156,7 +11155,7 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J276">
         <v>6.4350064350059993E-2</v>
@@ -11179,10 +11178,10 @@
     </row>
     <row r="277" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D277">
         <v>12</v>
@@ -11191,7 +11190,7 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J277">
         <v>6.4350064350059993E-2</v>
@@ -11214,10 +11213,10 @@
     </row>
     <row r="278" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D278">
         <v>12</v>
@@ -11226,7 +11225,7 @@
         <v>13</v>
       </c>
       <c r="I278" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J278">
         <v>1.2870012870009999</v>
@@ -11249,10 +11248,10 @@
     </row>
     <row r="279" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D279">
         <v>12</v>
@@ -11261,7 +11260,7 @@
         <v>14</v>
       </c>
       <c r="I279" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J279">
         <v>1.2870012870009999</v>
@@ -11284,10 +11283,10 @@
     </row>
     <row r="280" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D280">
         <v>12</v>
@@ -11296,7 +11295,7 @@
         <v>15</v>
       </c>
       <c r="I280" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J280">
         <v>1.2870012870009999</v>
@@ -11319,10 +11318,10 @@
     </row>
     <row r="281" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D281">
         <v>12</v>
@@ -11331,7 +11330,7 @@
         <v>16</v>
       </c>
       <c r="I281" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J281">
         <v>2.8710028710029999E-2</v>
@@ -11357,10 +11356,10 @@
     </row>
     <row r="282" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D282">
         <v>12</v>
@@ -11369,7 +11368,7 @@
         <v>17</v>
       </c>
       <c r="I282" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J282">
         <v>2.8710028710029999E-2</v>
@@ -11395,10 +11394,10 @@
     </row>
     <row r="283" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C283" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D283">
         <v>12</v>
@@ -11407,7 +11406,7 @@
         <v>18</v>
       </c>
       <c r="I283" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J283">
         <v>2.8710028710029999E-2</v>
@@ -11433,10 +11432,10 @@
     </row>
     <row r="284" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C284" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -11445,7 +11444,7 @@
         <v>19</v>
       </c>
       <c r="I284" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J284">
         <v>1.2870012870009999</v>
@@ -11468,10 +11467,10 @@
     </row>
     <row r="285" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C285" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D285">
         <v>12</v>
@@ -11480,7 +11479,7 @@
         <v>20</v>
       </c>
       <c r="I285" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J285">
         <v>1.2870012870009999</v>
@@ -11503,10 +11502,10 @@
     </row>
     <row r="286" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C286" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D286">
         <v>12</v>
@@ -11515,7 +11514,7 @@
         <v>21</v>
       </c>
       <c r="I286" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J286">
         <v>1.2870012870009999</v>
@@ -11538,10 +11537,10 @@
     </row>
     <row r="287" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C287" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D287">
         <v>12</v>
@@ -11550,7 +11549,7 @@
         <v>22</v>
       </c>
       <c r="I287" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J287">
         <v>3.8610038610039997E-2</v>
@@ -11573,10 +11572,10 @@
     </row>
     <row r="288" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D288">
         <v>12</v>
@@ -11585,7 +11584,7 @@
         <v>23</v>
       </c>
       <c r="I288" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J288">
         <v>3.8610038610039997E-2</v>
@@ -11608,10 +11607,10 @@
     </row>
     <row r="289" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -11620,7 +11619,7 @@
         <v>24</v>
       </c>
       <c r="I289" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="J289">
         <v>3.8610038610039997E-2</v>
@@ -11643,10 +11642,10 @@
     </row>
     <row r="290" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D290">
         <v>13</v>
@@ -11655,7 +11654,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J290">
         <v>0.17325017325020001</v>
@@ -11678,10 +11677,10 @@
     </row>
     <row r="291" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D291">
         <v>13</v>
@@ -11690,7 +11689,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J291">
         <v>0.17325017325020001</v>
@@ -11713,10 +11712,10 @@
     </row>
     <row r="292" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C292" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D292">
         <v>13</v>
@@ -11725,7 +11724,7 @@
         <v>3</v>
       </c>
       <c r="I292" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J292">
         <v>0.17325017325020001</v>
@@ -11748,10 +11747,10 @@
     </row>
     <row r="293" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -11760,7 +11759,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J293">
         <v>0.17325017325020001</v>
@@ -11783,10 +11782,10 @@
     </row>
     <row r="294" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C294" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -11795,7 +11794,7 @@
         <v>5</v>
       </c>
       <c r="I294" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J294">
         <v>0.17325017325020001</v>
@@ -11818,10 +11817,10 @@
     </row>
     <row r="295" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D295">
         <v>13</v>
@@ -11830,7 +11829,7 @@
         <v>6</v>
       </c>
       <c r="I295" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J295">
         <v>0.17325017325020001</v>
@@ -11853,10 +11852,10 @@
     </row>
     <row r="296" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D296">
         <v>13</v>
@@ -11865,7 +11864,7 @@
         <v>7</v>
       </c>
       <c r="I296" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J296">
         <v>0.17325017325020001</v>
@@ -11888,10 +11887,10 @@
     </row>
     <row r="297" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D297">
         <v>13</v>
@@ -11900,7 +11899,7 @@
         <v>8</v>
       </c>
       <c r="I297" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J297">
         <v>0.17325017325020001</v>
@@ -11923,10 +11922,10 @@
     </row>
     <row r="298" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D298">
         <v>13</v>
@@ -11935,7 +11934,7 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J298">
         <v>0.17325017325020001</v>
@@ -11958,10 +11957,10 @@
     </row>
     <row r="299" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C299" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D299">
         <v>13</v>
@@ -11970,7 +11969,7 @@
         <v>10</v>
       </c>
       <c r="I299" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J299">
         <v>2.079002079002E-2</v>
@@ -11993,10 +11992,10 @@
     </row>
     <row r="300" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -12005,7 +12004,7 @@
         <v>11</v>
       </c>
       <c r="I300" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J300">
         <v>2.079002079002E-2</v>
@@ -12028,10 +12027,10 @@
     </row>
     <row r="301" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D301">
         <v>13</v>
@@ -12040,7 +12039,7 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J301">
         <v>2.079002079002E-2</v>
@@ -12063,10 +12062,10 @@
     </row>
     <row r="302" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D302">
         <v>13</v>
@@ -12075,7 +12074,7 @@
         <v>13</v>
       </c>
       <c r="I302" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J302">
         <v>0.32670032670030003</v>
@@ -12098,10 +12097,10 @@
     </row>
     <row r="303" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C303" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D303">
         <v>13</v>
@@ -12110,7 +12109,7 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J303">
         <v>0.32670032670030003</v>
@@ -12133,10 +12132,10 @@
     </row>
     <row r="304" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C304" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D304">
         <v>13</v>
@@ -12145,7 +12144,7 @@
         <v>15</v>
       </c>
       <c r="I304" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J304">
         <v>0.32670032670030003</v>
@@ -12168,10 +12167,10 @@
     </row>
     <row r="305" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D305">
         <v>13</v>
@@ -12180,7 +12179,7 @@
         <v>16</v>
       </c>
       <c r="I305" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J305">
         <v>1.039501039501E-2</v>
@@ -12206,10 +12205,10 @@
     </row>
     <row r="306" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D306">
         <v>13</v>
@@ -12218,7 +12217,7 @@
         <v>17</v>
       </c>
       <c r="I306" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J306">
         <v>1.039501039501E-2</v>
@@ -12244,10 +12243,10 @@
     </row>
     <row r="307" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D307">
         <v>13</v>
@@ -12256,7 +12255,7 @@
         <v>18</v>
       </c>
       <c r="I307" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J307">
         <v>1.039501039501E-2</v>
@@ -12282,10 +12281,10 @@
     </row>
     <row r="308" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -12294,7 +12293,7 @@
         <v>19</v>
       </c>
       <c r="I308" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J308">
         <v>0.32670032670030003</v>
@@ -12317,10 +12316,10 @@
     </row>
     <row r="309" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D309">
         <v>13</v>
@@ -12329,7 +12328,7 @@
         <v>20</v>
       </c>
       <c r="I309" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K309">
         <v>0.32670032670030003</v>
@@ -12349,10 +12348,10 @@
     </row>
     <row r="310" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C310" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D310">
         <v>13</v>
@@ -12361,7 +12360,7 @@
         <v>21</v>
       </c>
       <c r="I310" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K310">
         <v>0.32670032670030003</v>
@@ -12381,10 +12380,10 @@
     </row>
     <row r="311" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C311" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D311">
         <v>13</v>
@@ -12393,7 +12392,7 @@
         <v>22</v>
       </c>
       <c r="I311" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K311">
         <v>1.287001287001E-2</v>
@@ -12413,10 +12412,10 @@
     </row>
     <row r="312" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C312" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D312">
         <v>13</v>
@@ -12425,7 +12424,7 @@
         <v>23</v>
       </c>
       <c r="I312" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K312">
         <v>1.287001287001E-2</v>
@@ -12445,10 +12444,10 @@
     </row>
     <row r="313" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C313" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D313">
         <v>13</v>
@@ -12457,7 +12456,7 @@
         <v>24</v>
       </c>
       <c r="I313" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K313">
         <v>1.287001287001E-2</v>
@@ -12477,10 +12476,10 @@
     </row>
     <row r="314" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D314">
         <v>14</v>
@@ -12489,7 +12488,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O314">
         <v>5.4450054450050002E-2</v>
@@ -12509,10 +12508,10 @@
     </row>
     <row r="315" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C315" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D315">
         <v>14</v>
@@ -12521,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="I315" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O315">
         <v>5.4450054450050002E-2</v>
@@ -12541,10 +12540,10 @@
     </row>
     <row r="316" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D316">
         <v>14</v>
@@ -12553,7 +12552,7 @@
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O316">
         <v>5.4450054450050002E-2</v>
@@ -12573,10 +12572,10 @@
     </row>
     <row r="317" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C317" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D317">
         <v>14</v>
@@ -12585,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O317">
         <v>5.4450054450050002E-2</v>
@@ -12605,10 +12604,10 @@
     </row>
     <row r="318" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C318" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D318">
         <v>14</v>
@@ -12617,7 +12616,7 @@
         <v>5</v>
       </c>
       <c r="I318" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O318">
         <v>5.4450054450050002E-2</v>
@@ -12637,10 +12636,10 @@
     </row>
     <row r="319" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C319" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D319">
         <v>14</v>
@@ -12649,7 +12648,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O319">
         <v>5.4450054450050002E-2</v>
@@ -12669,10 +12668,10 @@
     </row>
     <row r="320" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D320">
         <v>14</v>
@@ -12681,7 +12680,7 @@
         <v>7</v>
       </c>
       <c r="I320" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P320">
         <v>5.4450054450050002E-2</v>
@@ -12701,10 +12700,10 @@
     </row>
     <row r="321" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D321">
         <v>14</v>
@@ -12713,7 +12712,7 @@
         <v>8</v>
       </c>
       <c r="I321" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P321">
         <v>5.4450054450050002E-2</v>
@@ -12733,10 +12732,10 @@
     </row>
     <row r="322" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D322">
         <v>14</v>
@@ -12745,7 +12744,7 @@
         <v>9</v>
       </c>
       <c r="I322" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P322">
         <v>5.4450054450050002E-2</v>
@@ -12765,10 +12764,10 @@
     </row>
     <row r="323" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C323" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -12777,7 +12776,7 @@
         <v>10</v>
       </c>
       <c r="I323" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N323">
         <v>6.9300069300070001E-3</v>
@@ -12797,10 +12796,10 @@
     </row>
     <row r="324" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D324">
         <v>14</v>
@@ -12809,7 +12808,7 @@
         <v>11</v>
       </c>
       <c r="I324" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N324">
         <v>6.9300069300070001E-3</v>
@@ -12829,10 +12828,10 @@
     </row>
     <row r="325" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D325">
         <v>14</v>
@@ -12841,7 +12840,7 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N325">
         <v>6.9300069300070001E-3</v>
@@ -12861,10 +12860,10 @@
     </row>
     <row r="326" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D326">
         <v>14</v>
@@ -12873,7 +12872,7 @@
         <v>13</v>
       </c>
       <c r="I326" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S326">
         <v>7.9200079200080001E-2</v>
@@ -12893,10 +12892,10 @@
     </row>
     <row r="327" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D327">
         <v>14</v>
@@ -12905,7 +12904,7 @@
         <v>14</v>
       </c>
       <c r="I327" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S327">
         <v>7.9200079200080001E-2</v>
@@ -12925,10 +12924,10 @@
     </row>
     <row r="328" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D328">
         <v>14</v>
@@ -12937,7 +12936,7 @@
         <v>15</v>
       </c>
       <c r="I328" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S328">
         <v>7.9200079200080001E-2</v>
@@ -12957,10 +12956,10 @@
     </row>
     <row r="329" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D329">
         <v>14</v>
@@ -12969,7 +12968,7 @@
         <v>16</v>
       </c>
       <c r="I329" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O329">
         <v>0.17325017325020001</v>
@@ -12992,10 +12991,10 @@
     </row>
     <row r="330" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D330">
         <v>14</v>
@@ -13004,7 +13003,7 @@
         <v>17</v>
       </c>
       <c r="I330" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O330">
         <v>0.17325017325020001</v>
@@ -13027,10 +13026,10 @@
     </row>
     <row r="331" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D331">
         <v>14</v>
@@ -13039,7 +13038,7 @@
         <v>18</v>
       </c>
       <c r="I331" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O331">
         <v>0.17325017325020001</v>
@@ -13062,10 +13061,10 @@
     </row>
     <row r="332" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D332">
         <v>14</v>
@@ -13074,7 +13073,7 @@
         <v>19</v>
       </c>
       <c r="I332" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K332">
         <v>7.9200079200080001E-2</v>
@@ -13094,10 +13093,10 @@
     </row>
     <row r="333" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D333">
         <v>14</v>
@@ -13106,7 +13105,7 @@
         <v>20</v>
       </c>
       <c r="I333" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K333">
         <v>7.9200079200080001E-2</v>
@@ -13126,10 +13125,10 @@
     </row>
     <row r="334" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D334">
         <v>14</v>
@@ -13138,7 +13137,7 @@
         <v>21</v>
       </c>
       <c r="I334" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K334">
         <v>7.9200079200080001E-2</v>
@@ -13158,10 +13157,10 @@
     </row>
     <row r="335" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D335">
         <v>14</v>
@@ -13170,7 +13169,7 @@
         <v>22</v>
       </c>
       <c r="I335" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K335">
         <v>4.455004455004E-3</v>
@@ -13190,10 +13189,10 @@
     </row>
     <row r="336" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D336">
         <v>14</v>
@@ -13202,7 +13201,7 @@
         <v>23</v>
       </c>
       <c r="I336" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K336">
         <v>4.455004455004E-3</v>
@@ -13222,10 +13221,10 @@
     </row>
     <row r="337" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D337">
         <v>14</v>
@@ -13234,7 +13233,7 @@
         <v>24</v>
       </c>
       <c r="I337" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K337">
         <v>4.455004455004E-3</v>
@@ -13254,10 +13253,10 @@
     </row>
     <row r="338" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D338">
         <v>15</v>
@@ -13266,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O338">
         <v>1.485001485001E-2</v>
@@ -13286,10 +13285,10 @@
     </row>
     <row r="339" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D339">
         <v>15</v>
@@ -13298,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O339">
         <v>1.485001485001E-2</v>
@@ -13318,10 +13317,10 @@
     </row>
     <row r="340" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D340">
         <v>15</v>
@@ -13330,7 +13329,7 @@
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O340">
         <v>1.485001485001E-2</v>
@@ -13350,10 +13349,10 @@
     </row>
     <row r="341" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D341">
         <v>15</v>
@@ -13362,7 +13361,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O341">
         <v>1.485001485001E-2</v>
@@ -13382,10 +13381,10 @@
     </row>
     <row r="342" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D342">
         <v>15</v>
@@ -13394,7 +13393,7 @@
         <v>5</v>
       </c>
       <c r="I342" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O342">
         <v>1.485001485001E-2</v>
@@ -13414,10 +13413,10 @@
     </row>
     <row r="343" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D343">
         <v>15</v>
@@ -13426,7 +13425,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O343">
         <v>1.485001485001E-2</v>
@@ -13446,10 +13445,10 @@
     </row>
     <row r="344" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D344">
         <v>15</v>
@@ -13458,7 +13457,7 @@
         <v>7</v>
       </c>
       <c r="I344" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P344">
         <v>1.485001485001E-2</v>
@@ -13478,10 +13477,10 @@
     </row>
     <row r="345" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D345">
         <v>15</v>
@@ -13490,7 +13489,7 @@
         <v>8</v>
       </c>
       <c r="I345" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P345">
         <v>1.485001485001E-2</v>
@@ -13510,10 +13509,10 @@
     </row>
     <row r="346" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D346">
         <v>15</v>
@@ -13522,7 +13521,7 @@
         <v>9</v>
       </c>
       <c r="I346" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P346">
         <v>1.485001485001E-2</v>
@@ -13542,10 +13541,10 @@
     </row>
     <row r="347" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D347">
         <v>15</v>
@@ -13554,7 +13553,7 @@
         <v>10</v>
       </c>
       <c r="I347" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N347">
         <v>1.980001980002E-3</v>
@@ -13574,10 +13573,10 @@
     </row>
     <row r="348" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D348">
         <v>15</v>
@@ -13586,7 +13585,7 @@
         <v>11</v>
       </c>
       <c r="I348" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N348">
         <v>1.980001980002E-3</v>
@@ -13606,10 +13605,10 @@
     </row>
     <row r="349" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C349" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D349">
         <v>15</v>
@@ -13618,7 +13617,7 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N349">
         <v>1.980001980002E-3</v>
@@ -13638,10 +13637,10 @@
     </row>
     <row r="350" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D350">
         <v>15</v>
@@ -13650,7 +13649,7 @@
         <v>13</v>
       </c>
       <c r="I350" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S350">
         <v>1.980001980002E-2</v>
@@ -13670,10 +13669,10 @@
     </row>
     <row r="351" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D351">
         <v>15</v>
@@ -13682,7 +13681,7 @@
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S351">
         <v>1.980001980002E-2</v>
@@ -13702,10 +13701,10 @@
     </row>
     <row r="352" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D352">
         <v>15</v>
@@ -13714,7 +13713,7 @@
         <v>15</v>
       </c>
       <c r="I352" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S352">
         <v>1.980001980002E-2</v>
@@ -13734,10 +13733,10 @@
     </row>
     <row r="353" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D353">
         <v>15</v>
@@ -13746,7 +13745,7 @@
         <v>16</v>
       </c>
       <c r="I353" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O353">
         <v>0.17325017325020001</v>
@@ -13769,10 +13768,10 @@
     </row>
     <row r="354" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C354" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D354">
         <v>15</v>
@@ -13781,7 +13780,7 @@
         <v>17</v>
       </c>
       <c r="I354" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O354">
         <v>0.17325017325020001</v>
@@ -13804,10 +13803,10 @@
     </row>
     <row r="355" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C355" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D355">
         <v>15</v>
@@ -13816,7 +13815,7 @@
         <v>18</v>
       </c>
       <c r="I355" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O355">
         <v>0.17325017325020001</v>
@@ -13839,10 +13838,10 @@
     </row>
     <row r="356" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C356" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D356">
         <v>15</v>
@@ -13851,7 +13850,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K356">
         <v>1.980001980002E-2</v>
@@ -13871,10 +13870,10 @@
     </row>
     <row r="357" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C357" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D357">
         <v>15</v>
@@ -13883,7 +13882,7 @@
         <v>20</v>
       </c>
       <c r="I357" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K357">
         <v>1.980001980002E-2</v>
@@ -13903,10 +13902,10 @@
     </row>
     <row r="358" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D358">
         <v>15</v>
@@ -13915,7 +13914,7 @@
         <v>21</v>
       </c>
       <c r="I358" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K358">
         <v>1.980001980002E-2</v>
@@ -13935,10 +13934,10 @@
     </row>
     <row r="359" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D359">
         <v>15</v>
@@ -13947,7 +13946,7 @@
         <v>22</v>
       </c>
       <c r="I359" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K359">
         <v>1.485001485001E-3</v>
@@ -13967,10 +13966,10 @@
     </row>
     <row r="360" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C360" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D360">
         <v>15</v>
@@ -13979,7 +13978,7 @@
         <v>23</v>
       </c>
       <c r="I360" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K360">
         <v>1.485001485001E-3</v>
@@ -13999,10 +13998,10 @@
     </row>
     <row r="361" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D361">
         <v>15</v>
@@ -14011,7 +14010,7 @@
         <v>24</v>
       </c>
       <c r="I361" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K361">
         <v>1.485001485001E-3</v>
@@ -14031,10 +14030,10 @@
     </row>
     <row r="362" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C362" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D362">
         <v>16</v>
@@ -14043,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O362">
         <v>4.950004950005E-3</v>
@@ -14063,10 +14062,10 @@
     </row>
     <row r="363" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C363" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D363">
         <v>16</v>
@@ -14075,7 +14074,7 @@
         <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O363">
         <v>4.950004950005E-3</v>
@@ -14095,10 +14094,10 @@
     </row>
     <row r="364" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D364">
         <v>16</v>
@@ -14107,7 +14106,7 @@
         <v>3</v>
       </c>
       <c r="I364" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O364">
         <v>4.950004950005E-3</v>
@@ -14127,10 +14126,10 @@
     </row>
     <row r="365" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C365" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D365">
         <v>16</v>
@@ -14139,7 +14138,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O365">
         <v>4.950004950005E-3</v>
@@ -14159,10 +14158,10 @@
     </row>
     <row r="366" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D366">
         <v>16</v>
@@ -14171,7 +14170,7 @@
         <v>5</v>
       </c>
       <c r="I366" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O366">
         <v>4.950004950005E-3</v>
@@ -14191,10 +14190,10 @@
     </row>
     <row r="367" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C367" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D367">
         <v>16</v>
@@ -14203,7 +14202,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O367">
         <v>4.950004950005E-3</v>
@@ -14223,10 +14222,10 @@
     </row>
     <row r="368" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C368" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D368">
         <v>16</v>
@@ -14235,7 +14234,7 @@
         <v>7</v>
       </c>
       <c r="I368" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P368">
         <v>4.950004950005E-3</v>
@@ -14255,10 +14254,10 @@
     </row>
     <row r="369" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C369" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D369">
         <v>16</v>
@@ -14267,7 +14266,7 @@
         <v>8</v>
       </c>
       <c r="I369" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P369">
         <v>4.950004950005E-3</v>
@@ -14287,10 +14286,10 @@
     </row>
     <row r="370" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D370">
         <v>16</v>
@@ -14299,7 +14298,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P370">
         <v>4.950004950005E-3</v>
@@ -14319,10 +14318,10 @@
     </row>
     <row r="371" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C371" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D371">
         <v>16</v>
@@ -14331,7 +14330,7 @@
         <v>10</v>
       </c>
       <c r="I371" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N371">
         <v>6.435006435006E-4</v>
@@ -14351,10 +14350,10 @@
     </row>
     <row r="372" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C372" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D372">
         <v>16</v>
@@ -14363,7 +14362,7 @@
         <v>11</v>
       </c>
       <c r="I372" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N372">
         <v>6.435006435006E-4</v>
@@ -14383,10 +14382,10 @@
     </row>
     <row r="373" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C373" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D373">
         <v>16</v>
@@ -14395,7 +14394,7 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N373">
         <v>6.435006435006E-4</v>
@@ -14415,10 +14414,10 @@
     </row>
     <row r="374" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C374" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D374">
         <v>16</v>
@@ -14427,7 +14426,7 @@
         <v>13</v>
       </c>
       <c r="I374" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S374">
         <v>4.950004950005E-3</v>
@@ -14447,10 +14446,10 @@
     </row>
     <row r="375" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C375" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D375">
         <v>16</v>
@@ -14459,7 +14458,7 @@
         <v>14</v>
       </c>
       <c r="I375" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S375">
         <v>4.950004950005E-3</v>
@@ -14479,10 +14478,10 @@
     </row>
     <row r="376" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C376" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D376">
         <v>16</v>
@@ -14491,7 +14490,7 @@
         <v>15</v>
       </c>
       <c r="I376" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="S376">
         <v>4.950004950005E-3</v>
@@ -14511,10 +14510,10 @@
     </row>
     <row r="377" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C377" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D377">
         <v>16</v>
@@ -14523,7 +14522,7 @@
         <v>16</v>
       </c>
       <c r="I377" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O377">
         <v>0.17325017325020001</v>
@@ -14546,10 +14545,10 @@
     </row>
     <row r="378" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C378" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D378">
         <v>16</v>
@@ -14558,7 +14557,7 @@
         <v>17</v>
       </c>
       <c r="I378" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O378">
         <v>0.17325017325020001</v>
@@ -14581,10 +14580,10 @@
     </row>
     <row r="379" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C379" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D379">
         <v>16</v>
@@ -14593,7 +14592,7 @@
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O379">
         <v>0.17325017325020001</v>
@@ -14616,10 +14615,10 @@
     </row>
     <row r="380" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C380" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D380">
         <v>16</v>
@@ -14628,7 +14627,7 @@
         <v>19</v>
       </c>
       <c r="I380" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K380">
         <v>4.950004950005E-3</v>
@@ -14648,10 +14647,10 @@
     </row>
     <row r="381" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C381" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D381">
         <v>16</v>
@@ -14660,7 +14659,7 @@
         <v>20</v>
       </c>
       <c r="I381" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K381">
         <v>4.950004950005E-3</v>
@@ -14680,10 +14679,10 @@
     </row>
     <row r="382" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C382" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D382">
         <v>16</v>
@@ -14692,7 +14691,7 @@
         <v>21</v>
       </c>
       <c r="I382" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K382">
         <v>4.950004950005E-3</v>
@@ -14712,10 +14711,10 @@
     </row>
     <row r="383" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C383" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D383">
         <v>16</v>
@@ -14724,7 +14723,7 @@
         <v>22</v>
       </c>
       <c r="I383" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K383">
         <v>4.950004950005E-4</v>
@@ -14744,10 +14743,10 @@
     </row>
     <row r="384" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C384" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D384">
         <v>16</v>
@@ -14756,7 +14755,7 @@
         <v>23</v>
       </c>
       <c r="I384" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K384">
         <v>4.950004950005E-4</v>
@@ -14776,10 +14775,10 @@
     </row>
     <row r="385" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C385" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D385">
         <v>16</v>
@@ -14788,7 +14787,7 @@
         <v>24</v>
       </c>
       <c r="I385" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K385">
         <v>4.950004950005E-4</v>

--- a/resources/FullscreenV2.xlsx
+++ b/resources/FullscreenV2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhuismans/surfdrive/Promotie/12. STRATEGIC/Analyse 2.0/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A365A937-BB1F-BF4C-AD88-408B1C44F6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF768D7D-0678-F84D-83FD-338AD06B2E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36360" yWindow="2920" windowWidth="36060" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$X$385</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1651,14 +1654,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M354" sqref="M354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="21" max="21" width="25.33203125" customWidth="1"/>
     <col min="22" max="22" width="27.33203125" customWidth="1"/>
   </cols>
@@ -1737,7 +1742,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -1827,7 +1832,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>21</v>
       </c>
@@ -1897,7 +1902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1932,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>21</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2173,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -2238,7 +2243,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -2308,7 +2313,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>21</v>
       </c>
@@ -2378,7 +2383,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>21</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>21</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>21</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>21</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>21</v>
       </c>
@@ -2771,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -2806,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>21</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>21</v>
       </c>
@@ -2911,7 +2916,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>21</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>21</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>21</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>21</v>
       </c>
@@ -3121,7 +3126,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>21</v>
       </c>
@@ -3156,7 +3161,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -3191,7 +3196,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -3226,7 +3231,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>21</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>21</v>
       </c>
@@ -3296,7 +3301,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>21</v>
       </c>
@@ -3331,7 +3336,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>21</v>
       </c>
@@ -3366,7 +3371,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>21</v>
       </c>
@@ -3386,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>21</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>21</v>
       </c>
@@ -3444,7 +3449,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>21</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>21</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>21</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>21</v>
       </c>
@@ -3584,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>21</v>
       </c>
@@ -3654,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>21</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>21</v>
       </c>
@@ -3724,7 +3729,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>21</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>21</v>
       </c>
@@ -3794,7 +3799,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>21</v>
       </c>
@@ -3829,7 +3834,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>21</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>21</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>21</v>
       </c>
@@ -3934,7 +3939,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
         <v>21</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>21</v>
       </c>
@@ -4004,7 +4009,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>21</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>21</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>21</v>
       </c>
@@ -4109,7 +4114,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>21</v>
       </c>
@@ -4144,7 +4149,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>21</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>21</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>21</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>21</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>21</v>
       </c>
@@ -4292,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>21</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
         <v>21</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>21</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>21</v>
       </c>
@@ -4467,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>21</v>
       </c>
@@ -4502,7 +4507,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>21</v>
       </c>
@@ -4537,7 +4542,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>21</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>21</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>21</v>
       </c>
@@ -4677,7 +4682,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>21</v>
       </c>
@@ -4712,7 +4717,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
         <v>21</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
         <v>21</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>21</v>
       </c>
@@ -4852,7 +4857,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>21</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>21</v>
       </c>
@@ -4922,7 +4927,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>21</v>
       </c>
@@ -4957,7 +4962,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>21</v>
       </c>
@@ -4992,7 +4997,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>21</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>21</v>
       </c>
@@ -5041,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5075,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>21</v>
       </c>
@@ -5105,7 +5110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
         <v>21</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>21</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>21</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
         <v>21</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>21</v>
       </c>
@@ -5280,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>21</v>
       </c>
@@ -5315,7 +5320,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
         <v>21</v>
       </c>
@@ -5350,7 +5355,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
         <v>21</v>
       </c>
@@ -5385,7 +5390,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>21</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
         <v>21</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>21</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
         <v>21</v>
       </c>
@@ -5525,7 +5530,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
         <v>21</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
         <v>21</v>
       </c>
@@ -5595,7 +5600,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
         <v>21</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
         <v>21</v>
       </c>
@@ -5700,7 +5705,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
         <v>21</v>
       </c>
@@ -5735,7 +5740,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
         <v>21</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
         <v>21</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
         <v>21</v>
       </c>
@@ -5825,7 +5830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
         <v>21</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
         <v>21</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
         <v>21</v>
       </c>
@@ -5953,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
         <v>21</v>
       </c>
@@ -5988,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
         <v>21</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
         <v>21</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
         <v>21</v>
       </c>
@@ -6093,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
         <v>21</v>
       </c>
@@ -6128,7 +6133,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
         <v>21</v>
       </c>
@@ -6163,7 +6168,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>21</v>
       </c>
@@ -6198,7 +6203,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>21</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
         <v>21</v>
       </c>
@@ -6268,7 +6273,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
         <v>21</v>
       </c>
@@ -6303,7 +6308,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
         <v>21</v>
       </c>
@@ -6338,7 +6343,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
         <v>21</v>
       </c>
@@ -6373,7 +6378,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
         <v>21</v>
       </c>
@@ -6408,7 +6413,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
         <v>21</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
         <v>21</v>
       </c>
@@ -6478,7 +6483,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
         <v>21</v>
       </c>
@@ -6513,7 +6518,7 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
         <v>21</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
         <v>21</v>
       </c>
@@ -6583,7 +6588,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
         <v>21</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
         <v>21</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
         <v>21</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
         <v>21</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
         <v>21</v>
       </c>
@@ -6766,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
         <v>21</v>
       </c>
@@ -6801,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
         <v>21</v>
       </c>
@@ -6836,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
         <v>21</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
         <v>21</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
         <v>21</v>
       </c>
@@ -6941,7 +6946,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="156" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
         <v>21</v>
       </c>
@@ -6976,7 +6981,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="157" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>21</v>
       </c>
@@ -7011,7 +7016,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="158" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
         <v>21</v>
       </c>
@@ -7046,7 +7051,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
         <v>21</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
         <v>21</v>
       </c>
@@ -7116,7 +7121,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
         <v>21</v>
       </c>
@@ -7151,7 +7156,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="162" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
         <v>21</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
         <v>21</v>
       </c>
@@ -7221,7 +7226,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
         <v>21</v>
       </c>
@@ -7256,7 +7261,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
         <v>21</v>
       </c>
@@ -7291,7 +7296,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
         <v>21</v>
       </c>
@@ -7326,7 +7331,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7366,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="168" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
         <v>21</v>
       </c>
@@ -7396,7 +7401,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
         <v>21</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
         <v>21</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
         <v>21</v>
       </c>
@@ -7480,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
         <v>21</v>
       </c>
@@ -7509,7 +7514,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
         <v>21</v>
       </c>
@@ -7544,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
         <v>21</v>
       </c>
@@ -7579,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
         <v>21</v>
       </c>
@@ -7614,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
         <v>21</v>
       </c>
@@ -7649,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
         <v>21</v>
       </c>
@@ -7684,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
         <v>21</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
         <v>21</v>
       </c>
@@ -7754,7 +7759,7 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
         <v>21</v>
       </c>
@@ -7789,7 +7794,7 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7829,7 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
         <v>21</v>
       </c>
@@ -7859,7 +7864,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7899,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
         <v>21</v>
       </c>
@@ -7929,7 +7934,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
         <v>21</v>
       </c>
@@ -7964,7 +7969,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
         <v>21</v>
       </c>
@@ -7999,7 +8004,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="187" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
         <v>21</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
         <v>21</v>
       </c>
@@ -8069,7 +8074,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
         <v>21</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
         <v>21</v>
       </c>
@@ -8139,7 +8144,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="191" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
         <v>21</v>
       </c>
@@ -8174,7 +8179,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="192" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
         <v>21</v>
       </c>
@@ -8209,7 +8214,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="193" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
         <v>21</v>
       </c>
@@ -8244,7 +8249,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="194" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
         <v>21</v>
       </c>
@@ -8279,7 +8284,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
         <v>21</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="196" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
         <v>21</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
         <v>21</v>
       </c>
@@ -8384,7 +8389,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
         <v>21</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="199" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
         <v>21</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8494,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
         <v>21</v>
       </c>
@@ -8559,7 +8564,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
         <v>21</v>
       </c>
@@ -8594,7 +8599,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
         <v>21</v>
       </c>
@@ -8629,7 +8634,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
         <v>21</v>
       </c>
@@ -8664,7 +8669,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
         <v>21</v>
       </c>
@@ -8699,7 +8704,7 @@
         <v>9.9891000998910007E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
         <v>21</v>
       </c>
@@ -8734,7 +8739,7 @@
         <v>9.9891000998910007E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
         <v>21</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
         <v>21</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
         <v>21</v>
       </c>
@@ -8953,7 +8958,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
         <v>21</v>
       </c>
@@ -8988,7 +8993,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
         <v>21</v>
       </c>
@@ -9023,7 +9028,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
         <v>21</v>
       </c>
@@ -9058,7 +9063,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
         <v>21</v>
       </c>
@@ -9093,7 +9098,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
         <v>21</v>
       </c>
@@ -9128,7 +9133,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
         <v>21</v>
       </c>
@@ -9163,7 +9168,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
         <v>21</v>
       </c>
@@ -9198,7 +9203,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
         <v>21</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="222" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
         <v>21</v>
       </c>
@@ -9268,7 +9273,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
         <v>21</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
         <v>21</v>
       </c>
@@ -9338,7 +9343,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
         <v>21</v>
       </c>
@@ -9373,7 +9378,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
         <v>21</v>
       </c>
@@ -9408,7 +9413,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
         <v>21</v>
       </c>
@@ -9443,7 +9448,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
         <v>21</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
         <v>21</v>
       </c>
@@ -9513,7 +9518,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
         <v>21</v>
       </c>
@@ -9548,7 +9553,7 @@
         <v>9.9891099891099792E-3</v>
       </c>
     </row>
-    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
         <v>21</v>
       </c>
@@ -9583,7 +9588,7 @@
         <v>9.9891099891099792E-3</v>
       </c>
     </row>
-    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
         <v>21</v>
       </c>
@@ -9732,7 +9737,7 @@
         <v>9.9940599940600006E-3</v>
       </c>
     </row>
-    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
         <v>21</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
         <v>21</v>
       </c>
@@ -9802,7 +9807,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
         <v>21</v>
       </c>
@@ -9837,7 +9842,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
         <v>21</v>
       </c>
@@ -9872,7 +9877,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
         <v>21</v>
       </c>
@@ -9907,7 +9912,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
         <v>21</v>
       </c>
@@ -9942,7 +9947,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
         <v>21</v>
       </c>
@@ -9977,7 +9982,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
         <v>21</v>
       </c>
@@ -10012,7 +10017,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
         <v>21</v>
       </c>
@@ -10047,7 +10052,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
         <v>21</v>
       </c>
@@ -10082,7 +10087,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
         <v>21</v>
       </c>
@@ -10117,7 +10122,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
         <v>21</v>
       </c>
@@ -10152,7 +10157,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
         <v>21</v>
       </c>
@@ -10187,7 +10192,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
         <v>21</v>
       </c>
@@ -10222,7 +10227,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
         <v>21</v>
       </c>
@@ -10257,7 +10262,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
         <v>21</v>
       </c>
@@ -10292,7 +10297,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
         <v>21</v>
       </c>
@@ -10327,7 +10332,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
         <v>21</v>
       </c>
@@ -10362,7 +10367,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
         <v>21</v>
       </c>
@@ -10397,7 +10402,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
         <v>21</v>
       </c>
@@ -10432,7 +10437,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
         <v>21</v>
       </c>
@@ -10581,7 +10586,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
         <v>21</v>
       </c>
@@ -10616,7 +10621,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
         <v>21</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
         <v>21</v>
       </c>
@@ -10686,7 +10691,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
         <v>21</v>
       </c>
@@ -10721,7 +10726,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
         <v>21</v>
       </c>
@@ -10756,7 +10761,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
         <v>21</v>
       </c>
@@ -10791,7 +10796,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
         <v>21</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
         <v>21</v>
       </c>
@@ -10861,7 +10866,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
         <v>21</v>
       </c>
@@ -10896,7 +10901,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
         <v>21</v>
       </c>
@@ -10931,7 +10936,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="270" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
         <v>21</v>
       </c>
@@ -10966,7 +10971,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
         <v>21</v>
       </c>
@@ -11001,7 +11006,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="272" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
         <v>21</v>
       </c>
@@ -11036,7 +11041,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
         <v>21</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
         <v>21</v>
       </c>
@@ -11106,7 +11111,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="275" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
         <v>21</v>
       </c>
@@ -11141,7 +11146,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="276" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
         <v>21</v>
       </c>
@@ -11176,7 +11181,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
         <v>21</v>
       </c>
@@ -11211,7 +11216,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="278" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
         <v>21</v>
       </c>
@@ -11246,7 +11251,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="279" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
         <v>21</v>
       </c>
@@ -11281,7 +11286,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="280" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
         <v>21</v>
       </c>
@@ -11430,7 +11435,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="284" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
         <v>21</v>
       </c>
@@ -11465,7 +11470,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
         <v>21</v>
       </c>
@@ -11500,7 +11505,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="286" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
         <v>21</v>
       </c>
@@ -11535,7 +11540,7 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="287" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
         <v>21</v>
       </c>
@@ -11570,7 +11575,7 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="288" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
         <v>21</v>
       </c>
@@ -11605,7 +11610,7 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="289" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
         <v>21</v>
       </c>
@@ -11640,7 +11645,7 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="290" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
         <v>21</v>
       </c>
@@ -11675,7 +11680,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="291" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
         <v>21</v>
       </c>
@@ -11710,7 +11715,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="292" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
         <v>21</v>
       </c>
@@ -11745,7 +11750,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="293" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
         <v>21</v>
       </c>
@@ -11780,7 +11785,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="294" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
         <v>21</v>
       </c>
@@ -11815,7 +11820,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="295" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
         <v>21</v>
       </c>
@@ -11850,7 +11855,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="296" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
         <v>21</v>
       </c>
@@ -11885,7 +11890,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="297" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
         <v>21</v>
       </c>
@@ -11920,7 +11925,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="298" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
         <v>21</v>
       </c>
@@ -11955,7 +11960,7 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="299" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
         <v>21</v>
       </c>
@@ -11990,7 +11995,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="300" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
         <v>21</v>
       </c>
@@ -12025,7 +12030,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="301" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
         <v>21</v>
       </c>
@@ -12060,7 +12065,7 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="302" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
         <v>21</v>
       </c>
@@ -12095,7 +12100,7 @@
         <v>1.0002970002969999E-2</v>
       </c>
     </row>
-    <row r="303" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
         <v>21</v>
       </c>
@@ -12130,7 +12135,7 @@
         <v>1.0002970002969999E-2</v>
       </c>
     </row>
-    <row r="304" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
         <v>21</v>
       </c>
@@ -12279,7 +12284,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="308" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
         <v>21</v>
       </c>
@@ -12314,7 +12319,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="309" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
         <v>21</v>
       </c>
@@ -12330,6 +12335,9 @@
       <c r="I309" t="s">
         <v>249</v>
       </c>
+      <c r="J309">
+        <v>0.32670032670030003</v>
+      </c>
       <c r="K309">
         <v>0.32670032670030003</v>
       </c>
@@ -12346,7 +12354,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="310" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
         <v>21</v>
       </c>
@@ -12362,6 +12370,9 @@
       <c r="I310" t="s">
         <v>249</v>
       </c>
+      <c r="J310">
+        <v>0.32670032670030003</v>
+      </c>
       <c r="K310">
         <v>0.32670032670030003</v>
       </c>
@@ -12378,7 +12389,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="311" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
         <v>21</v>
       </c>
@@ -12394,6 +12405,9 @@
       <c r="I311" t="s">
         <v>253</v>
       </c>
+      <c r="J311">
+        <v>1.287001287001E-2</v>
+      </c>
       <c r="K311">
         <v>1.287001287001E-2</v>
       </c>
@@ -12410,7 +12424,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="312" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
         <v>21</v>
       </c>
@@ -12426,6 +12440,9 @@
       <c r="I312" t="s">
         <v>253</v>
       </c>
+      <c r="J312">
+        <v>1.287001287001E-2</v>
+      </c>
       <c r="K312">
         <v>1.287001287001E-2</v>
       </c>
@@ -12442,7 +12459,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="313" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
         <v>21</v>
       </c>
@@ -12458,6 +12475,9 @@
       <c r="I313" t="s">
         <v>253</v>
       </c>
+      <c r="J313">
+        <v>1.287001287001E-2</v>
+      </c>
       <c r="K313">
         <v>1.287001287001E-2</v>
       </c>
@@ -12474,7 +12494,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="314" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
         <v>21</v>
       </c>
@@ -12490,6 +12510,9 @@
       <c r="I314" t="s">
         <v>225</v>
       </c>
+      <c r="J314">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O314">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12506,7 +12529,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="315" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
         <v>21</v>
       </c>
@@ -12522,6 +12545,9 @@
       <c r="I315" t="s">
         <v>225</v>
       </c>
+      <c r="J315">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O315">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12538,7 +12564,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="316" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
         <v>21</v>
       </c>
@@ -12554,6 +12580,9 @@
       <c r="I316" t="s">
         <v>225</v>
       </c>
+      <c r="J316">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O316">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12570,7 +12599,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="317" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
         <v>21</v>
       </c>
@@ -12586,6 +12615,9 @@
       <c r="I317" t="s">
         <v>229</v>
       </c>
+      <c r="J317">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O317">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12602,7 +12634,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="318" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
         <v>21</v>
       </c>
@@ -12618,6 +12650,9 @@
       <c r="I318" t="s">
         <v>229</v>
       </c>
+      <c r="J318">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O318">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12634,7 +12669,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="319" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
         <v>21</v>
       </c>
@@ -12650,6 +12685,9 @@
       <c r="I319" t="s">
         <v>229</v>
       </c>
+      <c r="J319">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="O319">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12666,7 +12704,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="320" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
         <v>21</v>
       </c>
@@ -12682,6 +12720,9 @@
       <c r="I320" t="s">
         <v>233</v>
       </c>
+      <c r="J320">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="P320">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12698,7 +12739,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
         <v>21</v>
       </c>
@@ -12714,6 +12755,9 @@
       <c r="I321" t="s">
         <v>233</v>
       </c>
+      <c r="J321">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="P321">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12730,7 +12774,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
         <v>21</v>
       </c>
@@ -12746,6 +12790,9 @@
       <c r="I322" t="s">
         <v>233</v>
       </c>
+      <c r="J322">
+        <v>5.4450054450050002E-2</v>
+      </c>
       <c r="P322">
         <v>5.4450054450050002E-2</v>
       </c>
@@ -12762,7 +12809,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="323" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
         <v>21</v>
       </c>
@@ -12778,6 +12825,9 @@
       <c r="I323" t="s">
         <v>237</v>
       </c>
+      <c r="J323">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="N323">
         <v>6.9300069300070001E-3</v>
       </c>
@@ -12794,7 +12844,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="324" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
         <v>21</v>
       </c>
@@ -12810,6 +12860,9 @@
       <c r="I324" t="s">
         <v>237</v>
       </c>
+      <c r="J324">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="N324">
         <v>6.9300069300070001E-3</v>
       </c>
@@ -12826,7 +12879,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="325" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
         <v>21</v>
       </c>
@@ -12842,6 +12895,9 @@
       <c r="I325" t="s">
         <v>237</v>
       </c>
+      <c r="J325">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="N325">
         <v>6.9300069300070001E-3</v>
       </c>
@@ -12858,7 +12914,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="326" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
         <v>21</v>
       </c>
@@ -12874,6 +12930,9 @@
       <c r="I326" t="s">
         <v>241</v>
       </c>
+      <c r="J326">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="S326">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -12890,7 +12949,7 @@
         <v>9.9945549945549897E-3</v>
       </c>
     </row>
-    <row r="327" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
         <v>21</v>
       </c>
@@ -12906,6 +12965,9 @@
       <c r="I327" t="s">
         <v>241</v>
       </c>
+      <c r="J327">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="S327">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -12922,7 +12984,7 @@
         <v>9.9945549945549897E-3</v>
       </c>
     </row>
-    <row r="328" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
         <v>21</v>
       </c>
@@ -12938,6 +13000,9 @@
       <c r="I328" t="s">
         <v>241</v>
       </c>
+      <c r="J328">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="S328">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -12970,6 +13035,9 @@
       <c r="I329" t="s">
         <v>245</v>
       </c>
+      <c r="J329">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="O329">
         <v>0.17325017325020001</v>
       </c>
@@ -13005,6 +13073,9 @@
       <c r="I330" t="s">
         <v>245</v>
       </c>
+      <c r="J330">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="O330">
         <v>0.17325017325020001</v>
       </c>
@@ -13040,6 +13111,9 @@
       <c r="I331" t="s">
         <v>245</v>
       </c>
+      <c r="J331">
+        <v>3.7125037125040001E-3</v>
+      </c>
       <c r="O331">
         <v>0.17325017325020001</v>
       </c>
@@ -13059,7 +13133,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="332" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -13075,6 +13149,9 @@
       <c r="I332" t="s">
         <v>249</v>
       </c>
+      <c r="J332">
+        <v>7.9200079200080001E-2</v>
+      </c>
       <c r="K332">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -13091,7 +13168,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="333" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -13107,6 +13184,9 @@
       <c r="I333" t="s">
         <v>249</v>
       </c>
+      <c r="J333">
+        <v>7.9200079200080001E-2</v>
+      </c>
       <c r="K333">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -13123,7 +13203,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="334" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -13139,6 +13219,9 @@
       <c r="I334" t="s">
         <v>249</v>
       </c>
+      <c r="J334">
+        <v>7.9200079200080001E-2</v>
+      </c>
       <c r="K334">
         <v>7.9200079200080001E-2</v>
       </c>
@@ -13155,7 +13238,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="335" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -13171,6 +13254,9 @@
       <c r="I335" t="s">
         <v>253</v>
       </c>
+      <c r="J335">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="K335">
         <v>4.455004455004E-3</v>
       </c>
@@ -13187,7 +13273,7 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
         <v>21</v>
       </c>
@@ -13203,6 +13289,9 @@
       <c r="I336" t="s">
         <v>253</v>
       </c>
+      <c r="J336">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="K336">
         <v>4.455004455004E-3</v>
       </c>
@@ -13219,7 +13308,7 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="337" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -13235,6 +13324,9 @@
       <c r="I337" t="s">
         <v>253</v>
       </c>
+      <c r="J337">
+        <v>4.455004455004E-3</v>
+      </c>
       <c r="K337">
         <v>4.455004455004E-3</v>
       </c>
@@ -13251,7 +13343,7 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="338" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -13267,6 +13359,9 @@
       <c r="I338" t="s">
         <v>225</v>
       </c>
+      <c r="J338">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O338">
         <v>1.485001485001E-2</v>
       </c>
@@ -13283,7 +13378,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="339" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -13299,6 +13394,9 @@
       <c r="I339" t="s">
         <v>225</v>
       </c>
+      <c r="J339">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O339">
         <v>1.485001485001E-2</v>
       </c>
@@ -13315,7 +13413,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="340" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -13331,6 +13429,9 @@
       <c r="I340" t="s">
         <v>225</v>
       </c>
+      <c r="J340">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O340">
         <v>1.485001485001E-2</v>
       </c>
@@ -13347,7 +13448,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="341" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -13363,6 +13464,9 @@
       <c r="I341" t="s">
         <v>229</v>
       </c>
+      <c r="J341">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O341">
         <v>1.485001485001E-2</v>
       </c>
@@ -13379,7 +13483,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="342" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
         <v>21</v>
       </c>
@@ -13395,6 +13499,9 @@
       <c r="I342" t="s">
         <v>229</v>
       </c>
+      <c r="J342">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O342">
         <v>1.485001485001E-2</v>
       </c>
@@ -13411,7 +13518,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="343" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
         <v>21</v>
       </c>
@@ -13427,6 +13534,9 @@
       <c r="I343" t="s">
         <v>229</v>
       </c>
+      <c r="J343">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="O343">
         <v>1.485001485001E-2</v>
       </c>
@@ -13443,7 +13553,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="344" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
         <v>21</v>
       </c>
@@ -13459,6 +13569,9 @@
       <c r="I344" t="s">
         <v>233</v>
       </c>
+      <c r="J344">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="P344">
         <v>1.485001485001E-2</v>
       </c>
@@ -13475,7 +13588,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="345" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
         <v>21</v>
       </c>
@@ -13491,6 +13604,9 @@
       <c r="I345" t="s">
         <v>233</v>
       </c>
+      <c r="J345">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="P345">
         <v>1.485001485001E-2</v>
       </c>
@@ -13507,7 +13623,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="346" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -13523,6 +13639,9 @@
       <c r="I346" t="s">
         <v>233</v>
       </c>
+      <c r="J346">
+        <v>1.485001485001E-2</v>
+      </c>
       <c r="P346">
         <v>1.485001485001E-2</v>
       </c>
@@ -13539,7 +13658,7 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="347" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
         <v>21</v>
       </c>
@@ -13555,6 +13674,9 @@
       <c r="I347" t="s">
         <v>237</v>
       </c>
+      <c r="J347">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="N347">
         <v>1.980001980002E-3</v>
       </c>
@@ -13571,7 +13693,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="348" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -13587,6 +13709,9 @@
       <c r="I348" t="s">
         <v>237</v>
       </c>
+      <c r="J348">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="N348">
         <v>1.980001980002E-3</v>
       </c>
@@ -13603,7 +13728,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="349" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -13619,6 +13744,9 @@
       <c r="I349" t="s">
         <v>237</v>
       </c>
+      <c r="J349">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="N349">
         <v>1.980001980002E-3</v>
       </c>
@@ -13635,7 +13763,7 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="350" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -13651,6 +13779,9 @@
       <c r="I350" t="s">
         <v>241</v>
       </c>
+      <c r="J350">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="S350">
         <v>1.980001980002E-2</v>
       </c>
@@ -13667,7 +13798,7 @@
         <v>1.000396000396E-2</v>
       </c>
     </row>
-    <row r="351" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -13683,6 +13814,9 @@
       <c r="I351" t="s">
         <v>241</v>
       </c>
+      <c r="J351">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="S351">
         <v>1.980001980002E-2</v>
       </c>
@@ -13699,7 +13833,7 @@
         <v>1.000396000396E-2</v>
       </c>
     </row>
-    <row r="352" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -13715,6 +13849,9 @@
       <c r="I352" t="s">
         <v>241</v>
       </c>
+      <c r="J352">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="S352">
         <v>1.980001980002E-2</v>
       </c>
@@ -13747,6 +13884,9 @@
       <c r="I353" t="s">
         <v>245</v>
       </c>
+      <c r="J353">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="O353">
         <v>0.17325017325020001</v>
       </c>
@@ -13782,6 +13922,9 @@
       <c r="I354" t="s">
         <v>245</v>
       </c>
+      <c r="J354">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="O354">
         <v>0.17325017325020001</v>
       </c>
@@ -13817,6 +13960,9 @@
       <c r="I355" t="s">
         <v>245</v>
       </c>
+      <c r="J355">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="O355">
         <v>0.17325017325020001</v>
       </c>
@@ -13836,7 +13982,7 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="356" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -13852,6 +13998,9 @@
       <c r="I356" t="s">
         <v>249</v>
       </c>
+      <c r="J356">
+        <v>1.980001980002E-2</v>
+      </c>
       <c r="K356">
         <v>1.980001980002E-2</v>
       </c>
@@ -13868,7 +14017,7 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="357" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
         <v>21</v>
       </c>
@@ -13884,6 +14033,9 @@
       <c r="I357" t="s">
         <v>249</v>
       </c>
+      <c r="J357">
+        <v>1.980001980002E-2</v>
+      </c>
       <c r="K357">
         <v>1.980001980002E-2</v>
       </c>
@@ -13900,7 +14052,7 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="358" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -13916,6 +14068,9 @@
       <c r="I358" t="s">
         <v>249</v>
       </c>
+      <c r="J358">
+        <v>1.980001980002E-2</v>
+      </c>
       <c r="K358">
         <v>1.980001980002E-2</v>
       </c>
@@ -13932,7 +14087,7 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="359" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -13948,6 +14103,9 @@
       <c r="I359" t="s">
         <v>253</v>
       </c>
+      <c r="J359">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="K359">
         <v>1.485001485001E-3</v>
       </c>
@@ -13964,7 +14122,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="360" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
         <v>21</v>
       </c>
@@ -13980,6 +14138,9 @@
       <c r="I360" t="s">
         <v>253</v>
       </c>
+      <c r="J360">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="K360">
         <v>1.485001485001E-3</v>
       </c>
@@ -13996,7 +14157,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="361" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -14012,6 +14173,9 @@
       <c r="I361" t="s">
         <v>253</v>
       </c>
+      <c r="J361">
+        <v>1.485001485001E-3</v>
+      </c>
       <c r="K361">
         <v>1.485001485001E-3</v>
       </c>
@@ -14028,7 +14192,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="362" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
         <v>21</v>
       </c>
@@ -14044,6 +14208,9 @@
       <c r="I362" t="s">
         <v>225</v>
       </c>
+      <c r="J362">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O362">
         <v>4.950004950005E-3</v>
       </c>
@@ -14060,7 +14227,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="363" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
         <v>21</v>
       </c>
@@ -14076,6 +14243,9 @@
       <c r="I363" t="s">
         <v>225</v>
       </c>
+      <c r="J363">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O363">
         <v>4.950004950005E-3</v>
       </c>
@@ -14092,7 +14262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="364" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -14108,6 +14278,9 @@
       <c r="I364" t="s">
         <v>225</v>
       </c>
+      <c r="J364">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O364">
         <v>4.950004950005E-3</v>
       </c>
@@ -14124,7 +14297,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="365" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
         <v>21</v>
       </c>
@@ -14140,6 +14313,9 @@
       <c r="I365" t="s">
         <v>229</v>
       </c>
+      <c r="J365">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O365">
         <v>4.950004950005E-3</v>
       </c>
@@ -14156,7 +14332,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="366" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -14172,6 +14348,9 @@
       <c r="I366" t="s">
         <v>229</v>
       </c>
+      <c r="J366">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O366">
         <v>4.950004950005E-3</v>
       </c>
@@ -14188,7 +14367,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="367" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
         <v>21</v>
       </c>
@@ -14204,6 +14383,9 @@
       <c r="I367" t="s">
         <v>229</v>
       </c>
+      <c r="J367">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="O367">
         <v>4.950004950005E-3</v>
       </c>
@@ -14220,7 +14402,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="368" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
         <v>21</v>
       </c>
@@ -14236,6 +14418,9 @@
       <c r="I368" t="s">
         <v>233</v>
       </c>
+      <c r="J368">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="P368">
         <v>4.950004950005E-3</v>
       </c>
@@ -14252,7 +14437,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="369" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
         <v>21</v>
       </c>
@@ -14268,6 +14453,9 @@
       <c r="I369" t="s">
         <v>233</v>
       </c>
+      <c r="J369">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="P369">
         <v>4.950004950005E-3</v>
       </c>
@@ -14284,7 +14472,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="370" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
         <v>21</v>
       </c>
@@ -14300,6 +14488,9 @@
       <c r="I370" t="s">
         <v>233</v>
       </c>
+      <c r="J370">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="P370">
         <v>4.950004950005E-3</v>
       </c>
@@ -14316,7 +14507,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="371" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
         <v>21</v>
       </c>
@@ -14332,6 +14523,9 @@
       <c r="I371" t="s">
         <v>237</v>
       </c>
+      <c r="J371">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="N371">
         <v>6.435006435006E-4</v>
       </c>
@@ -14348,7 +14542,7 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="372" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
         <v>21</v>
       </c>
@@ -14364,6 +14558,9 @@
       <c r="I372" t="s">
         <v>237</v>
       </c>
+      <c r="J372">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="N372">
         <v>6.435006435006E-4</v>
       </c>
@@ -14380,7 +14577,7 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="373" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
         <v>21</v>
       </c>
@@ -14396,6 +14593,9 @@
       <c r="I373" t="s">
         <v>237</v>
       </c>
+      <c r="J373">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="N373">
         <v>6.435006435006E-4</v>
       </c>
@@ -14412,7 +14612,7 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="374" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
         <v>21</v>
       </c>
@@ -14428,6 +14628,9 @@
       <c r="I374" t="s">
         <v>241</v>
       </c>
+      <c r="J374">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="S374">
         <v>4.950004950005E-3</v>
       </c>
@@ -14444,7 +14647,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="375" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
         <v>21</v>
       </c>
@@ -14460,6 +14663,9 @@
       <c r="I375" t="s">
         <v>241</v>
       </c>
+      <c r="J375">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="S375">
         <v>4.950004950005E-3</v>
       </c>
@@ -14476,7 +14682,7 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="376" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
         <v>21</v>
       </c>
@@ -14492,6 +14698,9 @@
       <c r="I376" t="s">
         <v>241</v>
       </c>
+      <c r="J376">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="S376">
         <v>4.950004950005E-3</v>
       </c>
@@ -14524,6 +14733,9 @@
       <c r="I377" t="s">
         <v>245</v>
       </c>
+      <c r="J377">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="O377">
         <v>0.17325017325020001</v>
       </c>
@@ -14559,6 +14771,9 @@
       <c r="I378" t="s">
         <v>245</v>
       </c>
+      <c r="J378">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="O378">
         <v>0.17325017325020001</v>
       </c>
@@ -14594,6 +14809,9 @@
       <c r="I379" t="s">
         <v>245</v>
       </c>
+      <c r="J379">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="O379">
         <v>0.17325017325020001</v>
       </c>
@@ -14613,7 +14831,7 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="380" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
         <v>21</v>
       </c>
@@ -14629,6 +14847,9 @@
       <c r="I380" t="s">
         <v>249</v>
       </c>
+      <c r="J380">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="K380">
         <v>4.950004950005E-3</v>
       </c>
@@ -14645,7 +14866,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="381" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
         <v>21</v>
       </c>
@@ -14661,6 +14882,9 @@
       <c r="I381" t="s">
         <v>249</v>
       </c>
+      <c r="J381">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="K381">
         <v>4.950004950005E-3</v>
       </c>
@@ -14677,7 +14901,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="382" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
         <v>21</v>
       </c>
@@ -14693,6 +14917,9 @@
       <c r="I382" t="s">
         <v>249</v>
       </c>
+      <c r="J382">
+        <v>4.950004950005E-3</v>
+      </c>
       <c r="K382">
         <v>4.950004950005E-3</v>
       </c>
@@ -14709,7 +14936,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="383" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
         <v>21</v>
       </c>
@@ -14725,6 +14952,9 @@
       <c r="I383" t="s">
         <v>253</v>
       </c>
+      <c r="J383">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="K383">
         <v>4.950004950005E-4</v>
       </c>
@@ -14741,7 +14971,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="384" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
         <v>21</v>
       </c>
@@ -14757,6 +14987,9 @@
       <c r="I384" t="s">
         <v>253</v>
       </c>
+      <c r="J384">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="K384">
         <v>4.950004950005E-4</v>
       </c>
@@ -14773,7 +15006,7 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="385" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
         <v>21</v>
       </c>
@@ -14789,6 +15022,9 @@
       <c r="I385" t="s">
         <v>253</v>
       </c>
+      <c r="J385">
+        <v>4.950004950005E-4</v>
+      </c>
       <c r="K385">
         <v>4.950004950005E-4</v>
       </c>
@@ -14806,6 +15042,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X385" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="vi_bi_la"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/resources/FullscreenV2.xlsx
+++ b/resources/FullscreenV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mhuismans/surfdrive/Promotie/12. STRATEGIC/Analyse 2.0/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF768D7D-0678-F84D-83FD-338AD06B2E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{086E7F16-9778-2042-99C2-992C0B469E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36040" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="428">
   <si>
     <t>Organoid</t>
   </si>
@@ -44,18 +44,6 @@
     <t>Timepoint</t>
   </si>
   <si>
-    <t>Dispensed
-well</t>
-  </si>
-  <si>
-    <t>Dispensed
-row</t>
-  </si>
-  <si>
-    <t>Dispensed
-col</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -71,15 +59,9 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>conc_5-FU</t>
-  </si>
-  <si>
     <t>conc_Oxaliplatin</t>
   </si>
   <si>
-    <t>conc_SN-38</t>
-  </si>
-  <si>
     <t>conc_Lapatinib</t>
   </si>
   <si>
@@ -1316,10 +1298,30 @@
     <t>conc_condition</t>
   </si>
   <si>
-    <t>DMSO</t>
-  </si>
-  <si>
     <t>DMSO_pct</t>
+  </si>
+  <si>
+    <t>Dispensed_well</t>
+  </si>
+  <si>
+    <t>Dispensed_row</t>
+  </si>
+  <si>
+    <t>Dispensed_col</t>
+  </si>
+  <si>
+    <t>conc_5FU</t>
+  </si>
+  <si>
+    <t>conc_SN38</t>
+  </si>
+  <si>
+    <t>Volume (nL)
+DMSO normalization</t>
+  </si>
+  <si>
+    <t>Volume (nL)
+a+Tw normalization</t>
   </si>
 </sst>
 </file>
@@ -1654,11 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M354" sqref="M354"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1676,81 +1677,81 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
+        <v>425</v>
+      </c>
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>424</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>426</v>
+      </c>
+      <c r="V1" t="s">
+        <v>427</v>
+      </c>
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="X1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>425</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" t="s">
-        <v>19</v>
-      </c>
-      <c r="X1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1768,18 +1769,18 @@
         <v>0.01</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1788,7 +1789,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1803,12 +1804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1817,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1832,12 +1833,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1846,7 +1847,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>10000.224713150001</v>
@@ -1867,12 +1868,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1881,7 +1882,7 @@
         <v>5</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>10000.224713150001</v>
@@ -1902,12 +1903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1916,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>10000.224713150001</v>
@@ -1937,12 +1938,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1951,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J8">
         <v>1500.058</v>
@@ -1969,12 +1970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1983,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J9">
         <v>1500.058</v>
@@ -2001,12 +2002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2015,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J10">
         <v>1500.058</v>
@@ -2033,12 +2034,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2047,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J11">
         <v>1.999801999802</v>
@@ -2068,12 +2069,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2082,7 +2083,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J12">
         <v>1.999801999802</v>
@@ -2103,12 +2104,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2117,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J13">
         <v>1.999801999802</v>
@@ -2138,12 +2139,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2152,7 +2153,7 @@
         <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J14">
         <v>19.998019998019998</v>
@@ -2173,12 +2174,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2187,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J15">
         <v>19.998019998019998</v>
@@ -2208,12 +2209,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2222,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J16">
         <v>19.998019998019998</v>
@@ -2243,12 +2244,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2257,7 +2258,7 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>19.998019998019998</v>
@@ -2278,12 +2279,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2292,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>19.998019998019998</v>
@@ -2313,12 +2314,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2327,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>19.998019998019998</v>
@@ -2348,12 +2349,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2362,7 +2363,7 @@
         <v>19</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>19.998019998019998</v>
@@ -2383,12 +2384,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2397,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>19.998019998019998</v>
@@ -2418,12 +2419,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2432,7 +2433,7 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>19.998019998019998</v>
@@ -2453,12 +2454,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2467,7 +2468,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>0.59895059895059999</v>
@@ -2488,12 +2489,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2502,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J24">
         <v>0.59895059895059999</v>
@@ -2523,12 +2524,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2537,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J25">
         <v>0.59895059895059999</v>
@@ -2558,12 +2559,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2572,18 +2573,18 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2592,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2607,12 +2608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2621,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2636,12 +2637,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2650,7 +2651,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J29">
         <v>2213.630587222</v>
@@ -2671,12 +2672,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2685,7 +2686,7 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J30">
         <v>2213.630587222</v>
@@ -2706,12 +2707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2720,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>2213.630587222</v>
@@ -2741,12 +2742,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2755,7 +2756,7 @@
         <v>7</v>
       </c>
       <c r="I32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <v>379.73249626130001</v>
@@ -2776,12 +2777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2790,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J33">
         <v>379.73249626130001</v>
@@ -2811,12 +2812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2825,7 +2826,7 @@
         <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J34">
         <v>379.73249626130001</v>
@@ -2846,12 +2847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2860,7 +2861,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <v>0.63360063360060004</v>
@@ -2881,12 +2882,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2895,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J36">
         <v>0.63360063360060004</v>
@@ -2916,12 +2917,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2930,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J37">
         <v>0.63360063360060004</v>
@@ -2951,12 +2952,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2965,7 +2966,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J38">
         <v>6.1380061380060003</v>
@@ -2986,12 +2987,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3000,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J39">
         <v>6.1380061380060003</v>
@@ -3021,12 +3022,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3035,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J40">
         <v>6.1380061380060003</v>
@@ -3056,12 +3057,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3070,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>6.1380061380060003</v>
@@ -3091,12 +3092,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3105,7 +3106,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J42">
         <v>6.1380061380060003</v>
@@ -3126,12 +3127,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3140,7 +3141,7 @@
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J43">
         <v>6.1380061380060003</v>
@@ -3161,12 +3162,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3175,7 +3176,7 @@
         <v>19</v>
       </c>
       <c r="I44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>6.1380061380060003</v>
@@ -3196,12 +3197,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3210,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>6.1380061380060003</v>
@@ -3231,12 +3232,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3245,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="I46" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J46">
         <v>6.1380061380060003</v>
@@ -3266,12 +3267,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3280,7 +3281,7 @@
         <v>22</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>0.21780021780020001</v>
@@ -3301,12 +3302,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3315,7 +3316,7 @@
         <v>23</v>
       </c>
       <c r="I48" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>0.21780021780020001</v>
@@ -3336,12 +3337,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3350,7 +3351,7 @@
         <v>24</v>
       </c>
       <c r="I49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>0.21780021780020001</v>
@@ -3371,12 +3372,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3385,18 +3386,18 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3405,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -3420,12 +3421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3434,7 +3435,7 @@
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3449,12 +3450,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3463,7 +3464,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J53">
         <v>489.81312504559997</v>
@@ -3484,12 +3485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3498,7 +3499,7 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J54">
         <v>489.81312504559997</v>
@@ -3519,12 +3520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3533,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J55">
         <v>489.81312504559997</v>
@@ -3554,12 +3555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3568,7 +3569,7 @@
         <v>7</v>
       </c>
       <c r="I56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J56">
         <v>96.121225335419993</v>
@@ -3589,12 +3590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3603,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="I57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J57">
         <v>96.121225335419993</v>
@@ -3624,12 +3625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3638,7 +3639,7 @@
         <v>9</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J58">
         <v>96.121225335419993</v>
@@ -3659,12 +3660,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3673,7 +3674,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J59">
         <v>0.1980001980002</v>
@@ -3694,12 +3695,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="60" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3708,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J60">
         <v>0.1980001980002</v>
@@ -3729,12 +3730,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3743,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="I61" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J61">
         <v>0.1980001980002</v>
@@ -3764,12 +3765,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3778,7 +3779,7 @@
         <v>13</v>
       </c>
       <c r="I62" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J62">
         <v>1.8810018810019999</v>
@@ -3799,12 +3800,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="63" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3813,7 +3814,7 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J63">
         <v>1.8810018810019999</v>
@@ -3834,12 +3835,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3848,7 +3849,7 @@
         <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J64">
         <v>1.8810018810019999</v>
@@ -3869,12 +3870,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3883,7 +3884,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J65">
         <v>1.8810018810019999</v>
@@ -3904,12 +3905,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3918,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J66">
         <v>1.8810018810019999</v>
@@ -3939,12 +3940,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3953,7 +3954,7 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J67">
         <v>1.8810018810019999</v>
@@ -3974,12 +3975,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3988,7 +3989,7 @@
         <v>19</v>
       </c>
       <c r="I68" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>1.8810018810019999</v>
@@ -4009,12 +4010,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -4023,7 +4024,7 @@
         <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J69">
         <v>1.8810018810019999</v>
@@ -4044,12 +4045,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4058,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="I70" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>1.8810018810019999</v>
@@ -4079,12 +4080,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -4093,7 +4094,7 @@
         <v>22</v>
       </c>
       <c r="I71" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J71">
         <v>7.9200079200080001E-2</v>
@@ -4114,12 +4115,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -4128,7 +4129,7 @@
         <v>23</v>
       </c>
       <c r="I72" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J72">
         <v>7.9200079200080001E-2</v>
@@ -4149,12 +4150,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4163,7 +4164,7 @@
         <v>24</v>
       </c>
       <c r="I73" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J73">
         <v>7.9200079200080001E-2</v>
@@ -4184,12 +4185,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4198,18 +4199,18 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -4218,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -4233,12 +4234,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -4247,7 +4248,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4262,12 +4263,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D77">
         <v>4</v>
@@ -4276,7 +4277,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J77">
         <v>108.2459944852</v>
@@ -4297,12 +4298,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4311,7 +4312,7 @@
         <v>5</v>
       </c>
       <c r="I78" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J78">
         <v>108.2459944852</v>
@@ -4332,12 +4333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -4346,7 +4347,7 @@
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J79">
         <v>108.2459944852</v>
@@ -4367,12 +4368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -4381,7 +4382,7 @@
         <v>7</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J80">
         <v>24.375238960659999</v>
@@ -4402,12 +4403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D81">
         <v>4</v>
@@ -4416,7 +4417,7 @@
         <v>8</v>
       </c>
       <c r="I81" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J81">
         <v>24.375238960659999</v>
@@ -4437,12 +4438,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D82">
         <v>4</v>
@@ -4451,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J82">
         <v>24.375238960659999</v>
@@ -4472,12 +4473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D83">
         <v>4</v>
@@ -4486,7 +4487,7 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J83">
         <v>6.4350064350059993E-2</v>
@@ -4507,12 +4508,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="84" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>4</v>
@@ -4521,7 +4522,7 @@
         <v>11</v>
       </c>
       <c r="I84" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J84">
         <v>6.4350064350059993E-2</v>
@@ -4542,12 +4543,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="85" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -4556,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="I85" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J85">
         <v>6.4350064350059993E-2</v>
@@ -4577,12 +4578,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="86" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D86">
         <v>4</v>
@@ -4591,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="I86" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J86">
         <v>0.5742005742006</v>
@@ -4612,12 +4613,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4626,7 +4627,7 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J87">
         <v>0.5742005742006</v>
@@ -4647,12 +4648,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D88">
         <v>4</v>
@@ -4661,7 +4662,7 @@
         <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J88">
         <v>0.5742005742006</v>
@@ -4682,12 +4683,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -4696,7 +4697,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J89">
         <v>0.5742005742006</v>
@@ -4717,12 +4718,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -4731,7 +4732,7 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J90">
         <v>0.5742005742006</v>
@@ -4752,12 +4753,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D91">
         <v>4</v>
@@ -4766,7 +4767,7 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>0.5742005742006</v>
@@ -4787,12 +4788,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -4801,7 +4802,7 @@
         <v>19</v>
       </c>
       <c r="I92" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>0.5742005742006</v>
@@ -4822,12 +4823,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -4836,7 +4837,7 @@
         <v>20</v>
       </c>
       <c r="I93" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>0.5742005742006</v>
@@ -4857,12 +4858,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -4871,7 +4872,7 @@
         <v>21</v>
       </c>
       <c r="I94" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>0.5742005742006</v>
@@ -4892,12 +4893,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -4906,7 +4907,7 @@
         <v>22</v>
       </c>
       <c r="I95" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J95">
         <v>2.8710028710029999E-2</v>
@@ -4927,12 +4928,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -4941,7 +4942,7 @@
         <v>23</v>
       </c>
       <c r="I96" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J96">
         <v>2.8710028710029999E-2</v>
@@ -4962,12 +4963,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -4976,7 +4977,7 @@
         <v>24</v>
       </c>
       <c r="I97" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J97">
         <v>2.8710028710029999E-2</v>
@@ -4997,12 +4998,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -5011,18 +5012,18 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -5031,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -5046,12 +5047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -5060,7 +5061,7 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -5075,12 +5076,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -5089,7 +5090,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J101">
         <v>24.355183687989999</v>
@@ -5110,12 +5111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D102">
         <v>5</v>
@@ -5124,7 +5125,7 @@
         <v>5</v>
       </c>
       <c r="I102" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J102">
         <v>24.355183687989999</v>
@@ -5145,12 +5146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -5159,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="I103" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J103">
         <v>24.355183687989999</v>
@@ -5180,12 +5181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -5194,7 +5195,7 @@
         <v>7</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J104">
         <v>6.1320315408169996</v>
@@ -5215,12 +5216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -5229,7 +5230,7 @@
         <v>8</v>
       </c>
       <c r="I105" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J105">
         <v>6.1320315408169996</v>
@@ -5250,12 +5251,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D106">
         <v>5</v>
@@ -5264,7 +5265,7 @@
         <v>9</v>
       </c>
       <c r="I106" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J106">
         <v>6.1320315408169996</v>
@@ -5285,12 +5286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D107">
         <v>5</v>
@@ -5299,7 +5300,7 @@
         <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J107">
         <v>2.079002079002E-2</v>
@@ -5320,12 +5321,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -5334,7 +5335,7 @@
         <v>11</v>
       </c>
       <c r="I108" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J108">
         <v>2.079002079002E-2</v>
@@ -5355,12 +5356,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D109">
         <v>5</v>
@@ -5369,7 +5370,7 @@
         <v>12</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J109">
         <v>2.079002079002E-2</v>
@@ -5390,12 +5391,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -5404,7 +5405,7 @@
         <v>13</v>
       </c>
       <c r="I110" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J110">
         <v>0.17325017325020001</v>
@@ -5425,12 +5426,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D111">
         <v>5</v>
@@ -5439,7 +5440,7 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J111">
         <v>0.17325017325020001</v>
@@ -5460,12 +5461,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D112">
         <v>5</v>
@@ -5474,7 +5475,7 @@
         <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J112">
         <v>0.17325017325020001</v>
@@ -5495,12 +5496,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B113" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D113">
         <v>5</v>
@@ -5509,7 +5510,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J113">
         <v>0.17325017325020001</v>
@@ -5530,12 +5531,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B114" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D114">
         <v>5</v>
@@ -5544,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J114">
         <v>0.17325017325020001</v>
@@ -5565,12 +5566,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B115" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D115">
         <v>5</v>
@@ -5579,7 +5580,7 @@
         <v>18</v>
       </c>
       <c r="I115" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J115">
         <v>0.17325017325020001</v>
@@ -5600,12 +5601,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B116" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -5614,7 +5615,7 @@
         <v>19</v>
       </c>
       <c r="I116" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>0.17325017325020001</v>
@@ -5635,12 +5636,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B117" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -5649,7 +5650,7 @@
         <v>20</v>
       </c>
       <c r="I117" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J117">
         <v>0.17325017325020001</v>
@@ -5670,12 +5671,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B118" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D118">
         <v>5</v>
@@ -5684,7 +5685,7 @@
         <v>21</v>
       </c>
       <c r="I118" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J118">
         <v>0.17325017325020001</v>
@@ -5705,12 +5706,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D119">
         <v>5</v>
@@ -5719,7 +5720,7 @@
         <v>22</v>
       </c>
       <c r="I119" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J119">
         <v>1.039501039501E-2</v>
@@ -5740,12 +5741,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -5754,7 +5755,7 @@
         <v>23</v>
       </c>
       <c r="I120" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J120">
         <v>1.039501039501E-2</v>
@@ -5775,12 +5776,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="121" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -5789,7 +5790,7 @@
         <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J121">
         <v>1.039501039501E-2</v>
@@ -5810,12 +5811,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="122" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D122">
         <v>6</v>
@@ -5824,18 +5825,18 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D123">
         <v>6</v>
@@ -5844,7 +5845,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5859,12 +5860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D124">
         <v>6</v>
@@ -5873,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -5888,12 +5889,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -5902,7 +5903,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J125">
         <v>5.3156487660250002</v>
@@ -5923,12 +5924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D126">
         <v>6</v>
@@ -5937,7 +5938,7 @@
         <v>5</v>
       </c>
       <c r="I126" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J126">
         <v>5.3156487660250002</v>
@@ -5958,12 +5959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -5972,7 +5973,7 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J127">
         <v>5.3156487660250002</v>
@@ -5993,12 +5994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D128">
         <v>6</v>
@@ -6007,7 +6008,7 @@
         <v>7</v>
       </c>
       <c r="I128" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J128">
         <v>1.533028756412</v>
@@ -6028,12 +6029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B129" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D129">
         <v>6</v>
@@ -6042,7 +6043,7 @@
         <v>8</v>
       </c>
       <c r="I129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J129">
         <v>1.533028756412</v>
@@ -6063,12 +6064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D130">
         <v>6</v>
@@ -6077,7 +6078,7 @@
         <v>9</v>
       </c>
       <c r="I130" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J130">
         <v>1.533028756412</v>
@@ -6098,12 +6099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D131">
         <v>6</v>
@@ -6112,7 +6113,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J131">
         <v>6.9300069300070001E-3</v>
@@ -6133,12 +6134,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="132" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D132">
         <v>6</v>
@@ -6147,7 +6148,7 @@
         <v>11</v>
       </c>
       <c r="I132" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J132">
         <v>6.9300069300070001E-3</v>
@@ -6168,12 +6169,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="133" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D133">
         <v>6</v>
@@ -6182,7 +6183,7 @@
         <v>12</v>
       </c>
       <c r="I133" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J133">
         <v>6.9300069300070001E-3</v>
@@ -6203,12 +6204,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="134" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D134">
         <v>6</v>
@@ -6217,7 +6218,7 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J134">
         <v>5.4450054450050002E-2</v>
@@ -6238,12 +6239,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B135" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -6252,7 +6253,7 @@
         <v>14</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J135">
         <v>5.4450054450050002E-2</v>
@@ -6273,12 +6274,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D136">
         <v>6</v>
@@ -6287,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J136">
         <v>5.4450054450050002E-2</v>
@@ -6308,12 +6309,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D137">
         <v>6</v>
@@ -6322,7 +6323,7 @@
         <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J137">
         <v>5.4450054450050002E-2</v>
@@ -6343,12 +6344,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B138" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D138">
         <v>6</v>
@@ -6357,7 +6358,7 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J138">
         <v>5.4450054450050002E-2</v>
@@ -6378,12 +6379,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D139">
         <v>6</v>
@@ -6392,7 +6393,7 @@
         <v>18</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J139">
         <v>5.4450054450050002E-2</v>
@@ -6413,12 +6414,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D140">
         <v>6</v>
@@ -6427,7 +6428,7 @@
         <v>19</v>
       </c>
       <c r="I140" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>5.4450054450050002E-2</v>
@@ -6448,12 +6449,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D141">
         <v>6</v>
@@ -6462,7 +6463,7 @@
         <v>20</v>
       </c>
       <c r="I141" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>5.4450054450050002E-2</v>
@@ -6483,12 +6484,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D142">
         <v>6</v>
@@ -6497,7 +6498,7 @@
         <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>5.4450054450050002E-2</v>
@@ -6518,12 +6519,12 @@
         <v>9.9945549945550001E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B143" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D143">
         <v>6</v>
@@ -6532,7 +6533,7 @@
         <v>22</v>
       </c>
       <c r="I143" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J143">
         <v>3.7125037125040001E-3</v>
@@ -6553,12 +6554,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -6567,7 +6568,7 @@
         <v>23</v>
       </c>
       <c r="I144" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J144">
         <v>3.7125037125040001E-3</v>
@@ -6588,12 +6589,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D145">
         <v>6</v>
@@ -6602,7 +6603,7 @@
         <v>24</v>
       </c>
       <c r="I145" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J145">
         <v>3.7125037125040001E-3</v>
@@ -6623,12 +6624,12 @@
         <v>9.996534996535E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B146" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D146">
         <v>7</v>
@@ -6637,18 +6638,18 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B147" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D147">
         <v>7</v>
@@ -6657,7 +6658,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6672,12 +6673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D148">
         <v>7</v>
@@ -6686,7 +6687,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6701,12 +6702,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D149">
         <v>7</v>
@@ -6715,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J149">
         <v>1.169444348793</v>
@@ -6736,12 +6737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B150" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D150">
         <v>7</v>
@@ -6750,7 +6751,7 @@
         <v>5</v>
       </c>
       <c r="I150" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J150">
         <v>1.169444348793</v>
@@ -6771,12 +6772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D151">
         <v>7</v>
@@ -6785,7 +6786,7 @@
         <v>6</v>
       </c>
       <c r="I151" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J151">
         <v>1.169444348793</v>
@@ -6806,12 +6807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D152">
         <v>7</v>
@@ -6820,7 +6821,7 @@
         <v>7</v>
       </c>
       <c r="I152" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J152">
         <v>0.39448250935169998</v>
@@ -6841,12 +6842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B153" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D153">
         <v>7</v>
@@ -6855,7 +6856,7 @@
         <v>8</v>
       </c>
       <c r="I153" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J153">
         <v>0.39448250935169998</v>
@@ -6876,12 +6877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D154">
         <v>7</v>
@@ -6890,7 +6891,7 @@
         <v>9</v>
       </c>
       <c r="I154" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J154">
         <v>0.39448250935169998</v>
@@ -6911,12 +6912,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B155" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D155">
         <v>7</v>
@@ -6925,7 +6926,7 @@
         <v>10</v>
       </c>
       <c r="I155" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J155">
         <v>1.980001980002E-3</v>
@@ -6946,12 +6947,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="156" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B156" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D156">
         <v>7</v>
@@ -6960,7 +6961,7 @@
         <v>11</v>
       </c>
       <c r="I156" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J156">
         <v>1.980001980002E-3</v>
@@ -6981,12 +6982,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="157" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -6995,7 +6996,7 @@
         <v>12</v>
       </c>
       <c r="I157" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J157">
         <v>1.980001980002E-3</v>
@@ -7016,12 +7017,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="158" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D158">
         <v>7</v>
@@ -7030,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="I158" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J158">
         <v>1.485001485001E-2</v>
@@ -7051,12 +7052,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B159" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -7065,7 +7066,7 @@
         <v>14</v>
       </c>
       <c r="I159" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J159">
         <v>1.485001485001E-2</v>
@@ -7086,12 +7087,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B160" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D160">
         <v>7</v>
@@ -7100,7 +7101,7 @@
         <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J160">
         <v>1.485001485001E-2</v>
@@ -7121,12 +7122,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D161">
         <v>7</v>
@@ -7135,7 +7136,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J161">
         <v>1.485001485001E-2</v>
@@ -7156,12 +7157,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="162" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D162">
         <v>7</v>
@@ -7170,7 +7171,7 @@
         <v>17</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>1.485001485001E-2</v>
@@ -7191,12 +7192,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D163">
         <v>7</v>
@@ -7205,7 +7206,7 @@
         <v>18</v>
       </c>
       <c r="I163" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J163">
         <v>1.485001485001E-2</v>
@@ -7226,12 +7227,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D164">
         <v>7</v>
@@ -7240,7 +7241,7 @@
         <v>19</v>
       </c>
       <c r="I164" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>1.485001485001E-2</v>
@@ -7261,12 +7262,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D165">
         <v>7</v>
@@ -7275,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>1.485001485001E-2</v>
@@ -7296,12 +7297,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B166" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D166">
         <v>7</v>
@@ -7310,7 +7311,7 @@
         <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>1.485001485001E-2</v>
@@ -7331,12 +7332,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B167" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -7345,7 +7346,7 @@
         <v>22</v>
       </c>
       <c r="I167" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J167">
         <v>1.485001485001E-3</v>
@@ -7366,12 +7367,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="168" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B168" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -7380,7 +7381,7 @@
         <v>23</v>
       </c>
       <c r="I168" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J168">
         <v>1.485001485001E-3</v>
@@ -7401,12 +7402,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B169" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D169">
         <v>7</v>
@@ -7415,7 +7416,7 @@
         <v>24</v>
       </c>
       <c r="I169" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J169">
         <v>1.485001485001E-3</v>
@@ -7436,12 +7437,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="170" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B170" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D170">
         <v>8</v>
@@ -7450,18 +7451,18 @@
         <v>1</v>
       </c>
       <c r="I170" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B171" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D171">
         <v>8</v>
@@ -7470,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7485,12 +7486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B172" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D172">
         <v>8</v>
@@ -7499,7 +7500,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -7514,12 +7515,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B173" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D173">
         <v>8</v>
@@ -7528,7 +7529,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J173">
         <v>0.26578288803889999</v>
@@ -7549,12 +7550,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B174" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D174">
         <v>8</v>
@@ -7563,7 +7564,7 @@
         <v>5</v>
       </c>
       <c r="I174" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J174">
         <v>0.26578288803889999</v>
@@ -7584,12 +7585,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B175" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D175">
         <v>8</v>
@@ -7598,7 +7599,7 @@
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J175">
         <v>0.26578288803889999</v>
@@ -7619,12 +7620,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B176" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D176">
         <v>8</v>
@@ -7633,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="I176" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J176">
         <v>9.9373543271700004E-2</v>
@@ -7654,12 +7655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B177" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D177">
         <v>8</v>
@@ -7668,7 +7669,7 @@
         <v>8</v>
       </c>
       <c r="I177" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J177">
         <v>9.9373543271700004E-2</v>
@@ -7689,12 +7690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B178" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D178">
         <v>8</v>
@@ -7703,7 +7704,7 @@
         <v>9</v>
       </c>
       <c r="I178" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J178">
         <v>9.9373543271700004E-2</v>
@@ -7724,12 +7725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B179" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -7738,7 +7739,7 @@
         <v>10</v>
       </c>
       <c r="I179" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J179">
         <v>6.435006435006E-4</v>
@@ -7759,12 +7760,12 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B180" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D180">
         <v>8</v>
@@ -7773,7 +7774,7 @@
         <v>11</v>
       </c>
       <c r="I180" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J180">
         <v>6.435006435006E-4</v>
@@ -7794,12 +7795,12 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B181" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D181">
         <v>8</v>
@@ -7808,7 +7809,7 @@
         <v>12</v>
       </c>
       <c r="I181" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J181">
         <v>6.435006435006E-4</v>
@@ -7829,12 +7830,12 @@
         <v>9.9993317493317496E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B182" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -7843,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J182">
         <v>4.950004950005E-3</v>
@@ -7864,12 +7865,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="183" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B183" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -7878,7 +7879,7 @@
         <v>14</v>
       </c>
       <c r="I183" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J183">
         <v>4.950004950005E-3</v>
@@ -7899,12 +7900,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B184" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -7913,7 +7914,7 @@
         <v>15</v>
       </c>
       <c r="I184" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J184">
         <v>4.950004950005E-3</v>
@@ -7934,12 +7935,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D185">
         <v>8</v>
@@ -7948,7 +7949,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J185">
         <v>4.950004950005E-3</v>
@@ -7969,12 +7970,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B186" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D186">
         <v>8</v>
@@ -7983,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="I186" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J186">
         <v>4.950004950005E-3</v>
@@ -8004,12 +8005,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="187" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B187" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D187">
         <v>8</v>
@@ -8018,7 +8019,7 @@
         <v>18</v>
       </c>
       <c r="I187" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J187">
         <v>4.950004950005E-3</v>
@@ -8039,12 +8040,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B188" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D188">
         <v>8</v>
@@ -8053,7 +8054,7 @@
         <v>19</v>
       </c>
       <c r="I188" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J188">
         <v>4.950004950005E-3</v>
@@ -8074,12 +8075,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B189" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D189">
         <v>8</v>
@@ -8088,7 +8089,7 @@
         <v>20</v>
       </c>
       <c r="I189" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J189">
         <v>4.950004950005E-3</v>
@@ -8109,12 +8110,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B190" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D190">
         <v>8</v>
@@ -8123,7 +8124,7 @@
         <v>21</v>
       </c>
       <c r="I190" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J190">
         <v>4.950004950005E-3</v>
@@ -8144,12 +8145,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="191" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B191" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D191">
         <v>8</v>
@@ -8158,7 +8159,7 @@
         <v>22</v>
       </c>
       <c r="I191" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>4.950004950005E-4</v>
@@ -8179,12 +8180,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="192" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B192" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D192">
         <v>8</v>
@@ -8193,7 +8194,7 @@
         <v>23</v>
       </c>
       <c r="I192" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J192">
         <v>4.950004950005E-4</v>
@@ -8214,12 +8215,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="193" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B193" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D193">
         <v>8</v>
@@ -8228,7 +8229,7 @@
         <v>24</v>
       </c>
       <c r="I193" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J193">
         <v>4.950004950005E-4</v>
@@ -8249,12 +8250,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="194" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B194" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D194">
         <v>9</v>
@@ -8263,7 +8264,7 @@
         <v>1</v>
       </c>
       <c r="I194" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J194">
         <v>19.998019998019998</v>
@@ -8284,12 +8285,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B195" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D195">
         <v>9</v>
@@ -8298,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="I195" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J195">
         <v>19.998019998019998</v>
@@ -8319,12 +8320,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="196" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B196" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D196">
         <v>9</v>
@@ -8333,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="I196" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J196">
         <v>19.998019998019998</v>
@@ -8354,12 +8355,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B197" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C197" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -8368,7 +8369,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J197">
         <v>19.998019998019998</v>
@@ -8389,12 +8390,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B198" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D198">
         <v>9</v>
@@ -8403,7 +8404,7 @@
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J198">
         <v>19.998019998019998</v>
@@ -8424,12 +8425,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="199" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B199" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -8438,7 +8439,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J199">
         <v>19.998019998019998</v>
@@ -8459,12 +8460,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B200" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D200">
         <v>9</v>
@@ -8473,7 +8474,7 @@
         <v>7</v>
       </c>
       <c r="I200" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J200">
         <v>19.998019998019998</v>
@@ -8494,12 +8495,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="201" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B201" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D201">
         <v>9</v>
@@ -8508,7 +8509,7 @@
         <v>8</v>
       </c>
       <c r="I201" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J201">
         <v>19.998019998019998</v>
@@ -8529,12 +8530,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B202" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D202">
         <v>9</v>
@@ -8543,7 +8544,7 @@
         <v>9</v>
       </c>
       <c r="I202" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J202">
         <v>19.998019998019998</v>
@@ -8564,12 +8565,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B203" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D203">
         <v>9</v>
@@ -8578,7 +8579,7 @@
         <v>10</v>
       </c>
       <c r="I203" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J203">
         <v>1.999801999802</v>
@@ -8599,12 +8600,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B204" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D204">
         <v>9</v>
@@ -8613,7 +8614,7 @@
         <v>11</v>
       </c>
       <c r="I204" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J204">
         <v>1.999801999802</v>
@@ -8634,12 +8635,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B205" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D205">
         <v>9</v>
@@ -8648,7 +8649,7 @@
         <v>12</v>
       </c>
       <c r="I205" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J205">
         <v>1.999801999802</v>
@@ -8669,12 +8670,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B206" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D206">
         <v>9</v>
@@ -8683,7 +8684,7 @@
         <v>13</v>
       </c>
       <c r="I206" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J206">
         <v>84.942000849419998</v>
@@ -8704,12 +8705,12 @@
         <v>9.9891000998910007E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B207" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D207">
         <v>9</v>
@@ -8718,7 +8719,7 @@
         <v>14</v>
       </c>
       <c r="I207" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J207">
         <v>84.942000849419998</v>
@@ -8739,12 +8740,12 @@
         <v>9.9891000998910007E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B208" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D208">
         <v>9</v>
@@ -8753,7 +8754,7 @@
         <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J208">
         <v>84.942000849419998</v>
@@ -8776,10 +8777,10 @@
     </row>
     <row r="209" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D209">
         <v>9</v>
@@ -8788,7 +8789,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J209">
         <v>0.59895059895059999</v>
@@ -8814,10 +8815,10 @@
     </row>
     <row r="210" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D210">
         <v>9</v>
@@ -8826,7 +8827,7 @@
         <v>17</v>
       </c>
       <c r="I210" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J210">
         <v>0.59895059895059999</v>
@@ -8852,10 +8853,10 @@
     </row>
     <row r="211" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D211">
         <v>9</v>
@@ -8864,7 +8865,7 @@
         <v>18</v>
       </c>
       <c r="I211" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J211">
         <v>0.59895059895059999</v>
@@ -8888,12 +8889,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B212" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D212">
         <v>9</v>
@@ -8902,7 +8903,7 @@
         <v>19</v>
       </c>
       <c r="I212" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J212">
         <v>84.942084942080001</v>
@@ -8923,12 +8924,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B213" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -8937,7 +8938,7 @@
         <v>20</v>
       </c>
       <c r="I213" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J213">
         <v>84.942084942080001</v>
@@ -8958,12 +8959,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B214" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D214">
         <v>9</v>
@@ -8972,7 +8973,7 @@
         <v>21</v>
       </c>
       <c r="I214" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J214">
         <v>84.942084942080001</v>
@@ -8993,12 +8994,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B215" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D215">
         <v>9</v>
@@ -9007,7 +9008,7 @@
         <v>22</v>
       </c>
       <c r="I215" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J215">
         <v>0.99990099990100001</v>
@@ -9028,12 +9029,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B216" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D216">
         <v>9</v>
@@ -9042,7 +9043,7 @@
         <v>23</v>
       </c>
       <c r="I216" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J216">
         <v>0.99990099990100001</v>
@@ -9063,12 +9064,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D217">
         <v>9</v>
@@ -9077,7 +9078,7 @@
         <v>24</v>
       </c>
       <c r="I217" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J217">
         <v>0.99990099990100001</v>
@@ -9098,12 +9099,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B218" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D218">
         <v>10</v>
@@ -9112,7 +9113,7 @@
         <v>1</v>
       </c>
       <c r="I218" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J218">
         <v>6.1380061380060003</v>
@@ -9133,12 +9134,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B219" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D219">
         <v>10</v>
@@ -9147,7 +9148,7 @@
         <v>2</v>
       </c>
       <c r="I219" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J219">
         <v>6.1380061380060003</v>
@@ -9168,12 +9169,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B220" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D220">
         <v>10</v>
@@ -9182,7 +9183,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J220">
         <v>6.1380061380060003</v>
@@ -9203,12 +9204,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B221" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D221">
         <v>10</v>
@@ -9217,7 +9218,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J221">
         <v>6.1380061380060003</v>
@@ -9238,12 +9239,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="222" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D222">
         <v>10</v>
@@ -9252,7 +9253,7 @@
         <v>5</v>
       </c>
       <c r="I222" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J222">
         <v>6.1380061380060003</v>
@@ -9273,12 +9274,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B223" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D223">
         <v>10</v>
@@ -9287,7 +9288,7 @@
         <v>6</v>
       </c>
       <c r="I223" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J223">
         <v>6.1380061380060003</v>
@@ -9308,12 +9309,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B224" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D224">
         <v>10</v>
@@ -9322,7 +9323,7 @@
         <v>7</v>
       </c>
       <c r="I224" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J224">
         <v>6.1380061380060003</v>
@@ -9343,12 +9344,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="225" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B225" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D225">
         <v>10</v>
@@ -9357,7 +9358,7 @@
         <v>8</v>
       </c>
       <c r="I225" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J225">
         <v>6.1380061380060003</v>
@@ -9378,12 +9379,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B226" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D226">
         <v>10</v>
@@ -9392,7 +9393,7 @@
         <v>9</v>
       </c>
       <c r="I226" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J226">
         <v>6.1380061380060003</v>
@@ -9413,12 +9414,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D227">
         <v>10</v>
@@ -9427,7 +9428,7 @@
         <v>10</v>
       </c>
       <c r="I227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J227">
         <v>0.63360063360060004</v>
@@ -9448,12 +9449,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="228" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B228" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C228" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D228">
         <v>10</v>
@@ -9462,7 +9463,7 @@
         <v>11</v>
       </c>
       <c r="I228" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J228">
         <v>0.63360063360060004</v>
@@ -9483,12 +9484,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B229" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C229" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D229">
         <v>10</v>
@@ -9497,7 +9498,7 @@
         <v>12</v>
       </c>
       <c r="I229" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J229">
         <v>0.63360063360060004</v>
@@ -9518,12 +9519,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B230" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D230">
         <v>10</v>
@@ -9532,7 +9533,7 @@
         <v>13</v>
       </c>
       <c r="I230" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J230">
         <v>21.087021087019998</v>
@@ -9553,12 +9554,12 @@
         <v>9.9891099891099792E-3</v>
       </c>
     </row>
-    <row r="231" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B231" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C231" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D231">
         <v>10</v>
@@ -9567,7 +9568,7 @@
         <v>14</v>
       </c>
       <c r="I231" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J231">
         <v>21.087021087019998</v>
@@ -9588,12 +9589,12 @@
         <v>9.9891099891099792E-3</v>
       </c>
     </row>
-    <row r="232" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C232" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D232">
         <v>10</v>
@@ -9602,7 +9603,7 @@
         <v>15</v>
       </c>
       <c r="I232" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J232">
         <v>21.087021087019998</v>
@@ -9625,10 +9626,10 @@
     </row>
     <row r="233" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B233" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C233" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D233">
         <v>10</v>
@@ -9637,7 +9638,7 @@
         <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J233">
         <v>0.21780021780020001</v>
@@ -9663,10 +9664,10 @@
     </row>
     <row r="234" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B234" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C234" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D234">
         <v>10</v>
@@ -9675,7 +9676,7 @@
         <v>17</v>
       </c>
       <c r="I234" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J234">
         <v>0.21780021780020001</v>
@@ -9701,10 +9702,10 @@
     </row>
     <row r="235" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B235" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D235">
         <v>10</v>
@@ -9713,7 +9714,7 @@
         <v>18</v>
       </c>
       <c r="I235" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J235">
         <v>0.21780021780020001</v>
@@ -9737,12 +9738,12 @@
         <v>9.9940599940600006E-3</v>
       </c>
     </row>
-    <row r="236" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C236" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D236">
         <v>10</v>
@@ -9751,7 +9752,7 @@
         <v>19</v>
       </c>
       <c r="I236" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J236">
         <v>21.087021087019998</v>
@@ -9772,12 +9773,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C237" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D237">
         <v>10</v>
@@ -9786,7 +9787,7 @@
         <v>20</v>
       </c>
       <c r="I237" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J237">
         <v>21.087021087019998</v>
@@ -9807,12 +9808,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="238" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B238" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D238">
         <v>10</v>
@@ -9821,7 +9822,7 @@
         <v>21</v>
       </c>
       <c r="I238" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J238">
         <v>21.087021087019998</v>
@@ -9842,12 +9843,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="239" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B239" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C239" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D239">
         <v>10</v>
@@ -9856,7 +9857,7 @@
         <v>22</v>
       </c>
       <c r="I239" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J239">
         <v>0.33660033660029998</v>
@@ -9877,12 +9878,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="240" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B240" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C240" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D240">
         <v>10</v>
@@ -9891,7 +9892,7 @@
         <v>23</v>
       </c>
       <c r="I240" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J240">
         <v>0.33660033660029998</v>
@@ -9912,12 +9913,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B241" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D241">
         <v>10</v>
@@ -9926,7 +9927,7 @@
         <v>24</v>
       </c>
       <c r="I241" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J241">
         <v>0.33660033660029998</v>
@@ -9947,12 +9948,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="242" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D242">
         <v>11</v>
@@ -9961,7 +9962,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J242">
         <v>1.8810018810019999</v>
@@ -9982,12 +9983,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B243" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C243" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D243">
         <v>11</v>
@@ -9996,7 +9997,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J243">
         <v>1.8810018810019999</v>
@@ -10017,12 +10018,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="244" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B244" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C244" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D244">
         <v>11</v>
@@ -10031,7 +10032,7 @@
         <v>3</v>
       </c>
       <c r="I244" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J244">
         <v>1.8810018810019999</v>
@@ -10052,12 +10053,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="245" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B245" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C245" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D245">
         <v>11</v>
@@ -10066,7 +10067,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J245">
         <v>1.8810018810019999</v>
@@ -10087,12 +10088,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B246" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D246">
         <v>11</v>
@@ -10101,7 +10102,7 @@
         <v>5</v>
       </c>
       <c r="I246" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J246">
         <v>1.8810018810019999</v>
@@ -10122,12 +10123,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D247">
         <v>11</v>
@@ -10136,7 +10137,7 @@
         <v>6</v>
       </c>
       <c r="I247" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J247">
         <v>1.8810018810019999</v>
@@ -10157,12 +10158,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="248" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B248" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D248">
         <v>11</v>
@@ -10171,7 +10172,7 @@
         <v>7</v>
       </c>
       <c r="I248" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J248">
         <v>1.8810018810019999</v>
@@ -10192,12 +10193,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="249" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B249" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C249" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D249">
         <v>11</v>
@@ -10206,7 +10207,7 @@
         <v>8</v>
       </c>
       <c r="I249" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J249">
         <v>1.8810018810019999</v>
@@ -10227,12 +10228,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="250" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B250" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C250" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D250">
         <v>11</v>
@@ -10241,7 +10242,7 @@
         <v>9</v>
       </c>
       <c r="I250" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J250">
         <v>1.8810018810019999</v>
@@ -10262,12 +10263,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="251" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B251" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C251" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D251">
         <v>11</v>
@@ -10276,7 +10277,7 @@
         <v>10</v>
       </c>
       <c r="I251" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J251">
         <v>0.1980001980002</v>
@@ -10297,12 +10298,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C252" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D252">
         <v>11</v>
@@ -10311,7 +10312,7 @@
         <v>11</v>
       </c>
       <c r="I252" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J252">
         <v>0.1980001980002</v>
@@ -10332,12 +10333,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="253" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B253" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C253" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D253">
         <v>11</v>
@@ -10346,7 +10347,7 @@
         <v>12</v>
       </c>
       <c r="I253" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J253">
         <v>0.1980001980002</v>
@@ -10367,12 +10368,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="254" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B254" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C254" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D254">
         <v>11</v>
@@ -10381,7 +10382,7 @@
         <v>13</v>
       </c>
       <c r="I254" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J254">
         <v>5.2470052470050002</v>
@@ -10402,12 +10403,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="255" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B255" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C255" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D255">
         <v>11</v>
@@ -10416,7 +10417,7 @@
         <v>14</v>
       </c>
       <c r="I255" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J255">
         <v>5.2470052470050002</v>
@@ -10437,12 +10438,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B256" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C256" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D256">
         <v>11</v>
@@ -10451,7 +10452,7 @@
         <v>15</v>
       </c>
       <c r="I256" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J256">
         <v>5.2470052470050002</v>
@@ -10474,10 +10475,10 @@
     </row>
     <row r="257" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D257">
         <v>11</v>
@@ -10486,7 +10487,7 @@
         <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J257">
         <v>7.9200079200080001E-2</v>
@@ -10512,10 +10513,10 @@
     </row>
     <row r="258" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B258" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D258">
         <v>11</v>
@@ -10524,7 +10525,7 @@
         <v>17</v>
       </c>
       <c r="I258" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J258">
         <v>7.9200079200080001E-2</v>
@@ -10550,10 +10551,10 @@
     </row>
     <row r="259" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B259" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D259">
         <v>11</v>
@@ -10562,7 +10563,7 @@
         <v>18</v>
       </c>
       <c r="I259" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J259">
         <v>7.9200079200080001E-2</v>
@@ -10586,12 +10587,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B260" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D260">
         <v>11</v>
@@ -10600,7 +10601,7 @@
         <v>19</v>
       </c>
       <c r="I260" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J260">
         <v>5.2470052470050002</v>
@@ -10621,12 +10622,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="261" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B261" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D261">
         <v>11</v>
@@ -10635,7 +10636,7 @@
         <v>20</v>
       </c>
       <c r="I261" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J261">
         <v>5.2470052470050002</v>
@@ -10656,12 +10657,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C262" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -10670,7 +10671,7 @@
         <v>21</v>
       </c>
       <c r="I262" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J262">
         <v>5.2470052470050002</v>
@@ -10691,12 +10692,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="263" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B263" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C263" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D263">
         <v>11</v>
@@ -10705,7 +10706,7 @@
         <v>22</v>
       </c>
       <c r="I263" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J263">
         <v>0.1188001188001</v>
@@ -10726,12 +10727,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B264" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D264">
         <v>11</v>
@@ -10740,7 +10741,7 @@
         <v>23</v>
       </c>
       <c r="I264" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J264">
         <v>0.1188001188001</v>
@@ -10761,12 +10762,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="265" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B265" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D265">
         <v>11</v>
@@ -10775,7 +10776,7 @@
         <v>24</v>
       </c>
       <c r="I265" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J265">
         <v>0.1188001188001</v>
@@ -10796,12 +10797,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B266" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C266" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D266">
         <v>12</v>
@@ -10810,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="I266" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J266">
         <v>0.5742005742006</v>
@@ -10831,12 +10832,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D267">
         <v>12</v>
@@ -10845,7 +10846,7 @@
         <v>2</v>
       </c>
       <c r="I267" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J267">
         <v>0.5742005742006</v>
@@ -10866,12 +10867,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B268" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C268" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D268">
         <v>12</v>
@@ -10880,7 +10881,7 @@
         <v>3</v>
       </c>
       <c r="I268" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J268">
         <v>0.5742005742006</v>
@@ -10901,12 +10902,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B269" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C269" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D269">
         <v>12</v>
@@ -10915,7 +10916,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J269">
         <v>0.5742005742006</v>
@@ -10936,12 +10937,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="270" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B270" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C270" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D270">
         <v>12</v>
@@ -10950,7 +10951,7 @@
         <v>5</v>
       </c>
       <c r="I270" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J270">
         <v>0.5742005742006</v>
@@ -10971,12 +10972,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="271" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B271" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D271">
         <v>12</v>
@@ -10985,7 +10986,7 @@
         <v>6</v>
       </c>
       <c r="I271" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J271">
         <v>0.5742005742006</v>
@@ -11006,12 +11007,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="272" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D272">
         <v>12</v>
@@ -11020,7 +11021,7 @@
         <v>7</v>
       </c>
       <c r="I272" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J272">
         <v>0.5742005742006</v>
@@ -11041,12 +11042,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B273" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C273" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D273">
         <v>12</v>
@@ -11055,7 +11056,7 @@
         <v>8</v>
       </c>
       <c r="I273" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J273">
         <v>0.5742005742006</v>
@@ -11076,12 +11077,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B274" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C274" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D274">
         <v>12</v>
@@ -11090,7 +11091,7 @@
         <v>9</v>
       </c>
       <c r="I274" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J274">
         <v>0.5742005742006</v>
@@ -11111,12 +11112,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="275" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B275" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C275" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D275">
         <v>12</v>
@@ -11125,7 +11126,7 @@
         <v>10</v>
       </c>
       <c r="I275" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J275">
         <v>6.4350064350059993E-2</v>
@@ -11146,12 +11147,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="276" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B276" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C276" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D276">
         <v>12</v>
@@ -11160,7 +11161,7 @@
         <v>11</v>
       </c>
       <c r="I276" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J276">
         <v>6.4350064350059993E-2</v>
@@ -11181,12 +11182,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="277" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C277" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D277">
         <v>12</v>
@@ -11195,7 +11196,7 @@
         <v>12</v>
       </c>
       <c r="I277" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J277">
         <v>6.4350064350059993E-2</v>
@@ -11216,12 +11217,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="278" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B278" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C278" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D278">
         <v>12</v>
@@ -11230,7 +11231,7 @@
         <v>13</v>
       </c>
       <c r="I278" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J278">
         <v>1.2870012870009999</v>
@@ -11251,12 +11252,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="279" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B279" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C279" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D279">
         <v>12</v>
@@ -11265,7 +11266,7 @@
         <v>14</v>
       </c>
       <c r="I279" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J279">
         <v>1.2870012870009999</v>
@@ -11286,12 +11287,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="280" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B280" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C280" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D280">
         <v>12</v>
@@ -11300,7 +11301,7 @@
         <v>15</v>
       </c>
       <c r="I280" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J280">
         <v>1.2870012870009999</v>
@@ -11323,10 +11324,10 @@
     </row>
     <row r="281" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B281" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C281" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D281">
         <v>12</v>
@@ -11335,7 +11336,7 @@
         <v>16</v>
       </c>
       <c r="I281" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J281">
         <v>2.8710028710029999E-2</v>
@@ -11361,10 +11362,10 @@
     </row>
     <row r="282" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C282" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D282">
         <v>12</v>
@@ -11373,7 +11374,7 @@
         <v>17</v>
       </c>
       <c r="I282" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J282">
         <v>2.8710028710029999E-2</v>
@@ -11399,10 +11400,10 @@
     </row>
     <row r="283" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B283" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C283" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D283">
         <v>12</v>
@@ -11411,7 +11412,7 @@
         <v>18</v>
       </c>
       <c r="I283" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J283">
         <v>2.8710028710029999E-2</v>
@@ -11435,12 +11436,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="284" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B284" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C284" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D284">
         <v>12</v>
@@ -11449,7 +11450,7 @@
         <v>19</v>
       </c>
       <c r="I284" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J284">
         <v>1.2870012870009999</v>
@@ -11470,12 +11471,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="285" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B285" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C285" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D285">
         <v>12</v>
@@ -11484,7 +11485,7 @@
         <v>20</v>
       </c>
       <c r="I285" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J285">
         <v>1.2870012870009999</v>
@@ -11505,12 +11506,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="286" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B286" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C286" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D286">
         <v>12</v>
@@ -11519,7 +11520,7 @@
         <v>21</v>
       </c>
       <c r="I286" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J286">
         <v>1.2870012870009999</v>
@@ -11540,12 +11541,12 @@
         <v>9.9990099990099994E-3</v>
       </c>
     </row>
-    <row r="287" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C287" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D287">
         <v>12</v>
@@ -11554,7 +11555,7 @@
         <v>22</v>
       </c>
       <c r="I287" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J287">
         <v>3.8610038610039997E-2</v>
@@ -11575,12 +11576,12 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="288" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B288" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C288" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D288">
         <v>12</v>
@@ -11589,7 +11590,7 @@
         <v>23</v>
       </c>
       <c r="I288" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J288">
         <v>3.8610038610039997E-2</v>
@@ -11610,12 +11611,12 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="289" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B289" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D289">
         <v>12</v>
@@ -11624,7 +11625,7 @@
         <v>24</v>
       </c>
       <c r="I289" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J289">
         <v>3.8610038610039997E-2</v>
@@ -11645,12 +11646,12 @@
         <v>9.9980199980200003E-3</v>
       </c>
     </row>
-    <row r="290" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B290" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D290">
         <v>13</v>
@@ -11659,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J290">
         <v>0.17325017325020001</v>
@@ -11680,12 +11681,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="291" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B291" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D291">
         <v>13</v>
@@ -11694,7 +11695,7 @@
         <v>2</v>
       </c>
       <c r="I291" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J291">
         <v>0.17325017325020001</v>
@@ -11715,12 +11716,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="292" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D292">
         <v>13</v>
@@ -11729,7 +11730,7 @@
         <v>3</v>
       </c>
       <c r="I292" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J292">
         <v>0.17325017325020001</v>
@@ -11750,12 +11751,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="293" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B293" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C293" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D293">
         <v>13</v>
@@ -11764,7 +11765,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J293">
         <v>0.17325017325020001</v>
@@ -11785,12 +11786,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="294" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B294" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C294" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D294">
         <v>13</v>
@@ -11799,7 +11800,7 @@
         <v>5</v>
       </c>
       <c r="I294" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J294">
         <v>0.17325017325020001</v>
@@ -11820,12 +11821,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="295" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B295" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C295" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D295">
         <v>13</v>
@@ -11834,7 +11835,7 @@
         <v>6</v>
       </c>
       <c r="I295" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J295">
         <v>0.17325017325020001</v>
@@ -11855,12 +11856,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="296" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B296" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D296">
         <v>13</v>
@@ -11869,7 +11870,7 @@
         <v>7</v>
       </c>
       <c r="I296" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J296">
         <v>0.17325017325020001</v>
@@ -11890,12 +11891,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="297" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B297" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D297">
         <v>13</v>
@@ -11904,7 +11905,7 @@
         <v>8</v>
       </c>
       <c r="I297" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J297">
         <v>0.17325017325020001</v>
@@ -11925,12 +11926,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="298" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B298" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C298" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D298">
         <v>13</v>
@@ -11939,7 +11940,7 @@
         <v>9</v>
       </c>
       <c r="I298" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J298">
         <v>0.17325017325020001</v>
@@ -11960,12 +11961,12 @@
         <v>9.9940599940599902E-3</v>
       </c>
     </row>
-    <row r="299" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B299" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C299" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D299">
         <v>13</v>
@@ -11974,7 +11975,7 @@
         <v>10</v>
       </c>
       <c r="I299" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J299">
         <v>2.079002079002E-2</v>
@@ -11995,12 +11996,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="300" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B300" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C300" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D300">
         <v>13</v>
@@ -12009,7 +12010,7 @@
         <v>11</v>
       </c>
       <c r="I300" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J300">
         <v>2.079002079002E-2</v>
@@ -12030,12 +12031,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="301" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B301" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C301" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D301">
         <v>13</v>
@@ -12044,7 +12045,7 @@
         <v>12</v>
       </c>
       <c r="I301" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J301">
         <v>2.079002079002E-2</v>
@@ -12065,12 +12066,12 @@
         <v>1.0002475002475E-2</v>
       </c>
     </row>
-    <row r="302" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C302" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D302">
         <v>13</v>
@@ -12079,7 +12080,7 @@
         <v>13</v>
       </c>
       <c r="I302" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J302">
         <v>0.32670032670030003</v>
@@ -12100,12 +12101,12 @@
         <v>1.0002970002969999E-2</v>
       </c>
     </row>
-    <row r="303" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C303" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D303">
         <v>13</v>
@@ -12114,7 +12115,7 @@
         <v>14</v>
       </c>
       <c r="I303" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J303">
         <v>0.32670032670030003</v>
@@ -12135,12 +12136,12 @@
         <v>1.0002970002969999E-2</v>
       </c>
     </row>
-    <row r="304" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B304" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C304" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D304">
         <v>13</v>
@@ -12149,7 +12150,7 @@
         <v>15</v>
       </c>
       <c r="I304" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J304">
         <v>0.32670032670030003</v>
@@ -12172,10 +12173,10 @@
     </row>
     <row r="305" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B305" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D305">
         <v>13</v>
@@ -12184,7 +12185,7 @@
         <v>16</v>
       </c>
       <c r="I305" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J305">
         <v>1.039501039501E-2</v>
@@ -12210,10 +12211,10 @@
     </row>
     <row r="306" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B306" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D306">
         <v>13</v>
@@ -12222,7 +12223,7 @@
         <v>17</v>
       </c>
       <c r="I306" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J306">
         <v>1.039501039501E-2</v>
@@ -12248,10 +12249,10 @@
     </row>
     <row r="307" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D307">
         <v>13</v>
@@ -12260,7 +12261,7 @@
         <v>18</v>
       </c>
       <c r="I307" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J307">
         <v>1.039501039501E-2</v>
@@ -12284,12 +12285,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="308" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D308">
         <v>13</v>
@@ -12298,7 +12299,7 @@
         <v>19</v>
       </c>
       <c r="I308" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J308">
         <v>0.32670032670030003</v>
@@ -12319,12 +12320,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="309" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B309" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D309">
         <v>13</v>
@@ -12333,7 +12334,7 @@
         <v>20</v>
       </c>
       <c r="I309" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J309">
         <v>0.32670032670030003</v>
@@ -12354,12 +12355,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="310" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B310" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D310">
         <v>13</v>
@@ -12368,7 +12369,7 @@
         <v>21</v>
       </c>
       <c r="I310" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J310">
         <v>0.32670032670030003</v>
@@ -12389,12 +12390,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="311" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B311" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="D311">
         <v>13</v>
@@ -12403,7 +12404,7 @@
         <v>22</v>
       </c>
       <c r="I311" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J311">
         <v>1.287001287001E-2</v>
@@ -12424,12 +12425,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="312" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B312" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D312">
         <v>13</v>
@@ -12438,7 +12439,7 @@
         <v>23</v>
       </c>
       <c r="I312" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J312">
         <v>1.287001287001E-2</v>
@@ -12459,12 +12460,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="313" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B313" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D313">
         <v>13</v>
@@ -12473,7 +12474,7 @@
         <v>24</v>
       </c>
       <c r="I313" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J313">
         <v>1.287001287001E-2</v>
@@ -12494,12 +12495,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="314" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D314">
         <v>14</v>
@@ -12508,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="I314" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J314">
         <v>5.4450054450050002E-2</v>
@@ -12529,12 +12530,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="315" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D315">
         <v>14</v>
@@ -12543,7 +12544,7 @@
         <v>2</v>
       </c>
       <c r="I315" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J315">
         <v>5.4450054450050002E-2</v>
@@ -12564,12 +12565,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="316" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D316">
         <v>14</v>
@@ -12578,7 +12579,7 @@
         <v>3</v>
       </c>
       <c r="I316" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J316">
         <v>5.4450054450050002E-2</v>
@@ -12599,12 +12600,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="317" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D317">
         <v>14</v>
@@ -12613,7 +12614,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J317">
         <v>5.4450054450050002E-2</v>
@@ -12634,12 +12635,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="318" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C318" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D318">
         <v>14</v>
@@ -12648,7 +12649,7 @@
         <v>5</v>
       </c>
       <c r="I318" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J318">
         <v>5.4450054450050002E-2</v>
@@ -12669,12 +12670,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="319" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D319">
         <v>14</v>
@@ -12683,7 +12684,7 @@
         <v>6</v>
       </c>
       <c r="I319" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J319">
         <v>5.4450054450050002E-2</v>
@@ -12704,12 +12705,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="320" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D320">
         <v>14</v>
@@ -12718,7 +12719,7 @@
         <v>7</v>
       </c>
       <c r="I320" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J320">
         <v>5.4450054450050002E-2</v>
@@ -12739,12 +12740,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D321">
         <v>14</v>
@@ -12753,7 +12754,7 @@
         <v>8</v>
       </c>
       <c r="I321" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J321">
         <v>5.4450054450050002E-2</v>
@@ -12774,12 +12775,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C322" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D322">
         <v>14</v>
@@ -12788,7 +12789,7 @@
         <v>9</v>
       </c>
       <c r="I322" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J322">
         <v>5.4450054450050002E-2</v>
@@ -12809,12 +12810,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="323" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C323" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D323">
         <v>14</v>
@@ -12823,7 +12824,7 @@
         <v>10</v>
       </c>
       <c r="I323" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J323">
         <v>4.455004455004E-3</v>
@@ -12844,12 +12845,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="324" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C324" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D324">
         <v>14</v>
@@ -12858,7 +12859,7 @@
         <v>11</v>
       </c>
       <c r="I324" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J324">
         <v>4.455004455004E-3</v>
@@ -12879,12 +12880,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="325" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C325" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D325">
         <v>14</v>
@@ -12893,7 +12894,7 @@
         <v>12</v>
       </c>
       <c r="I325" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J325">
         <v>4.455004455004E-3</v>
@@ -12914,12 +12915,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="326" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B326" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C326" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D326">
         <v>14</v>
@@ -12928,7 +12929,7 @@
         <v>13</v>
       </c>
       <c r="I326" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J326">
         <v>3.7125037125040001E-3</v>
@@ -12949,12 +12950,12 @@
         <v>9.9945549945549897E-3</v>
       </c>
     </row>
-    <row r="327" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B327" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C327" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D327">
         <v>14</v>
@@ -12963,7 +12964,7 @@
         <v>14</v>
       </c>
       <c r="I327" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J327">
         <v>3.7125037125040001E-3</v>
@@ -12984,12 +12985,12 @@
         <v>9.9945549945549897E-3</v>
       </c>
     </row>
-    <row r="328" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B328" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C328" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D328">
         <v>14</v>
@@ -12998,7 +12999,7 @@
         <v>15</v>
       </c>
       <c r="I328" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J328">
         <v>3.7125037125040001E-3</v>
@@ -13021,10 +13022,10 @@
     </row>
     <row r="329" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B329" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C329" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D329">
         <v>14</v>
@@ -13033,7 +13034,7 @@
         <v>16</v>
       </c>
       <c r="I329" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J329">
         <v>3.7125037125040001E-3</v>
@@ -13059,10 +13060,10 @@
     </row>
     <row r="330" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B330" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D330">
         <v>14</v>
@@ -13071,7 +13072,7 @@
         <v>17</v>
       </c>
       <c r="I330" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J330">
         <v>3.7125037125040001E-3</v>
@@ -13097,10 +13098,10 @@
     </row>
     <row r="331" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B331" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C331" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D331">
         <v>14</v>
@@ -13109,7 +13110,7 @@
         <v>18</v>
       </c>
       <c r="I331" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J331">
         <v>3.7125037125040001E-3</v>
@@ -13133,12 +13134,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="332" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B332" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C332" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D332">
         <v>14</v>
@@ -13147,7 +13148,7 @@
         <v>19</v>
       </c>
       <c r="I332" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J332">
         <v>7.9200079200080001E-2</v>
@@ -13168,12 +13169,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="333" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B333" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C333" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D333">
         <v>14</v>
@@ -13182,7 +13183,7 @@
         <v>20</v>
       </c>
       <c r="I333" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J333">
         <v>7.9200079200080001E-2</v>
@@ -13203,12 +13204,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="334" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B334" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C334" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D334">
         <v>14</v>
@@ -13217,7 +13218,7 @@
         <v>21</v>
       </c>
       <c r="I334" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J334">
         <v>7.9200079200080001E-2</v>
@@ -13238,12 +13239,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="335" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B335" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C335" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D335">
         <v>14</v>
@@ -13252,7 +13253,7 @@
         <v>22</v>
       </c>
       <c r="I335" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J335">
         <v>4.455004455004E-3</v>
@@ -13273,12 +13274,12 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="336" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B336" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C336" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D336">
         <v>14</v>
@@ -13287,7 +13288,7 @@
         <v>23</v>
       </c>
       <c r="I336" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J336">
         <v>4.455004455004E-3</v>
@@ -13308,12 +13309,12 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="337" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B337" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D337">
         <v>14</v>
@@ -13322,7 +13323,7 @@
         <v>24</v>
       </c>
       <c r="I337" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J337">
         <v>4.455004455004E-3</v>
@@ -13343,12 +13344,12 @@
         <v>1.0003465003465E-2</v>
       </c>
     </row>
-    <row r="338" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B338" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D338">
         <v>15</v>
@@ -13357,7 +13358,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J338">
         <v>1.485001485001E-2</v>
@@ -13378,12 +13379,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="339" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B339" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D339">
         <v>15</v>
@@ -13392,7 +13393,7 @@
         <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J339">
         <v>1.485001485001E-2</v>
@@ -13413,12 +13414,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="340" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B340" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D340">
         <v>15</v>
@@ -13427,7 +13428,7 @@
         <v>3</v>
       </c>
       <c r="I340" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J340">
         <v>1.485001485001E-2</v>
@@ -13448,12 +13449,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="341" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B341" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D341">
         <v>15</v>
@@ -13462,7 +13463,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J341">
         <v>1.485001485001E-2</v>
@@ -13483,12 +13484,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="342" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B342" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D342">
         <v>15</v>
@@ -13497,7 +13498,7 @@
         <v>5</v>
       </c>
       <c r="I342" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J342">
         <v>1.485001485001E-2</v>
@@ -13518,12 +13519,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="343" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B343" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D343">
         <v>15</v>
@@ -13532,7 +13533,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J343">
         <v>1.485001485001E-2</v>
@@ -13553,12 +13554,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="344" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B344" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D344">
         <v>15</v>
@@ -13567,7 +13568,7 @@
         <v>7</v>
       </c>
       <c r="I344" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J344">
         <v>1.485001485001E-2</v>
@@ -13588,12 +13589,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="345" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B345" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D345">
         <v>15</v>
@@ -13602,7 +13603,7 @@
         <v>8</v>
       </c>
       <c r="I345" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J345">
         <v>1.485001485001E-2</v>
@@ -13623,12 +13624,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="346" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B346" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D346">
         <v>15</v>
@@ -13637,7 +13638,7 @@
         <v>9</v>
       </c>
       <c r="I346" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J346">
         <v>1.485001485001E-2</v>
@@ -13658,12 +13659,12 @@
         <v>1.000198000198E-2</v>
       </c>
     </row>
-    <row r="347" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D347">
         <v>15</v>
@@ -13672,7 +13673,7 @@
         <v>10</v>
       </c>
       <c r="I347" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J347">
         <v>1.485001485001E-3</v>
@@ -13693,12 +13694,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="348" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D348">
         <v>15</v>
@@ -13707,7 +13708,7 @@
         <v>11</v>
       </c>
       <c r="I348" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J348">
         <v>1.485001485001E-3</v>
@@ -13728,12 +13729,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="349" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D349">
         <v>15</v>
@@ -13742,7 +13743,7 @@
         <v>12</v>
       </c>
       <c r="I349" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J349">
         <v>1.485001485001E-3</v>
@@ -13763,12 +13764,12 @@
         <v>1.0001485001485001E-2</v>
       </c>
     </row>
-    <row r="350" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D350">
         <v>15</v>
@@ -13777,7 +13778,7 @@
         <v>13</v>
       </c>
       <c r="I350" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J350">
         <v>1.485001485001E-3</v>
@@ -13798,12 +13799,12 @@
         <v>1.000396000396E-2</v>
       </c>
     </row>
-    <row r="351" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C351" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D351">
         <v>15</v>
@@ -13812,7 +13813,7 @@
         <v>14</v>
       </c>
       <c r="I351" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J351">
         <v>1.485001485001E-3</v>
@@ -13833,12 +13834,12 @@
         <v>1.000396000396E-2</v>
       </c>
     </row>
-    <row r="352" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B352" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C352" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D352">
         <v>15</v>
@@ -13847,7 +13848,7 @@
         <v>15</v>
       </c>
       <c r="I352" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J352">
         <v>1.485001485001E-3</v>
@@ -13870,10 +13871,10 @@
     </row>
     <row r="353" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B353" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D353">
         <v>15</v>
@@ -13882,7 +13883,7 @@
         <v>16</v>
       </c>
       <c r="I353" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J353">
         <v>1.485001485001E-3</v>
@@ -13908,10 +13909,10 @@
     </row>
     <row r="354" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B354" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C354" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D354">
         <v>15</v>
@@ -13920,7 +13921,7 @@
         <v>17</v>
       </c>
       <c r="I354" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J354">
         <v>1.485001485001E-3</v>
@@ -13946,10 +13947,10 @@
     </row>
     <row r="355" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B355" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C355" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D355">
         <v>15</v>
@@ -13958,7 +13959,7 @@
         <v>18</v>
       </c>
       <c r="I355" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J355">
         <v>1.485001485001E-3</v>
@@ -13982,12 +13983,12 @@
         <v>9.9970299970299995E-3</v>
       </c>
     </row>
-    <row r="356" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B356" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D356">
         <v>15</v>
@@ -13996,7 +13997,7 @@
         <v>19</v>
       </c>
       <c r="I356" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J356">
         <v>1.980001980002E-2</v>
@@ -14017,12 +14018,12 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="357" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B357" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C357" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D357">
         <v>15</v>
@@ -14031,7 +14032,7 @@
         <v>20</v>
       </c>
       <c r="I357" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J357">
         <v>1.980001980002E-2</v>
@@ -14052,12 +14053,12 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="358" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B358" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C358" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D358">
         <v>15</v>
@@ -14066,7 +14067,7 @@
         <v>21</v>
       </c>
       <c r="I358" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J358">
         <v>1.980001980002E-2</v>
@@ -14087,12 +14088,12 @@
         <v>1.0000990000989999E-2</v>
       </c>
     </row>
-    <row r="359" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B359" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C359" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D359">
         <v>15</v>
@@ -14101,7 +14102,7 @@
         <v>22</v>
       </c>
       <c r="I359" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J359">
         <v>1.485001485001E-3</v>
@@ -14122,12 +14123,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="360" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B360" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C360" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D360">
         <v>15</v>
@@ -14136,7 +14137,7 @@
         <v>23</v>
       </c>
       <c r="I360" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J360">
         <v>1.485001485001E-3</v>
@@ -14157,12 +14158,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="361" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B361" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C361" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D361">
         <v>15</v>
@@ -14171,7 +14172,7 @@
         <v>24</v>
       </c>
       <c r="I361" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J361">
         <v>1.485001485001E-3</v>
@@ -14192,12 +14193,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="362" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B362" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C362" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D362">
         <v>16</v>
@@ -14206,7 +14207,7 @@
         <v>1</v>
       </c>
       <c r="I362" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J362">
         <v>4.950004950005E-3</v>
@@ -14227,12 +14228,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="363" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B363" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D363">
         <v>16</v>
@@ -14241,7 +14242,7 @@
         <v>2</v>
       </c>
       <c r="I363" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J363">
         <v>4.950004950005E-3</v>
@@ -14262,12 +14263,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="364" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B364" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C364" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D364">
         <v>16</v>
@@ -14276,7 +14277,7 @@
         <v>3</v>
       </c>
       <c r="I364" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J364">
         <v>4.950004950005E-3</v>
@@ -14297,12 +14298,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="365" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B365" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C365" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D365">
         <v>16</v>
@@ -14311,7 +14312,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J365">
         <v>4.950004950005E-3</v>
@@ -14332,12 +14333,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="366" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B366" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D366">
         <v>16</v>
@@ -14346,7 +14347,7 @@
         <v>5</v>
       </c>
       <c r="I366" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J366">
         <v>4.950004950005E-3</v>
@@ -14367,12 +14368,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="367" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B367" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D367">
         <v>16</v>
@@ -14381,7 +14382,7 @@
         <v>6</v>
       </c>
       <c r="I367" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="J367">
         <v>4.950004950005E-3</v>
@@ -14402,12 +14403,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="368" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B368" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C368" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D368">
         <v>16</v>
@@ -14416,7 +14417,7 @@
         <v>7</v>
       </c>
       <c r="I368" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J368">
         <v>4.950004950005E-3</v>
@@ -14437,12 +14438,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="369" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B369" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C369" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D369">
         <v>16</v>
@@ -14451,7 +14452,7 @@
         <v>8</v>
       </c>
       <c r="I369" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J369">
         <v>4.950004950005E-3</v>
@@ -14472,12 +14473,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="370" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B370" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C370" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D370">
         <v>16</v>
@@ -14486,7 +14487,7 @@
         <v>9</v>
       </c>
       <c r="I370" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J370">
         <v>4.950004950005E-3</v>
@@ -14507,12 +14508,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="371" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C371" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D371">
         <v>16</v>
@@ -14521,7 +14522,7 @@
         <v>10</v>
       </c>
       <c r="I371" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J371">
         <v>4.950004950005E-4</v>
@@ -14542,12 +14543,12 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="372" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C372" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D372">
         <v>16</v>
@@ -14556,7 +14557,7 @@
         <v>11</v>
       </c>
       <c r="I372" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J372">
         <v>4.950004950005E-4</v>
@@ -14577,12 +14578,12 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="373" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C373" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D373">
         <v>16</v>
@@ -14591,7 +14592,7 @@
         <v>12</v>
       </c>
       <c r="I373" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="J373">
         <v>4.950004950005E-4</v>
@@ -14612,12 +14613,12 @@
         <v>9.9998267498267492E-3</v>
       </c>
     </row>
-    <row r="374" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C374" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D374">
         <v>16</v>
@@ -14626,7 +14627,7 @@
         <v>13</v>
       </c>
       <c r="I374" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J374">
         <v>4.950004950005E-4</v>
@@ -14647,12 +14648,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="375" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C375" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D375">
         <v>16</v>
@@ -14661,7 +14662,7 @@
         <v>14</v>
       </c>
       <c r="I375" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J375">
         <v>4.950004950005E-4</v>
@@ -14682,12 +14683,12 @@
         <v>1.0000495000495E-2</v>
       </c>
     </row>
-    <row r="376" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D376">
         <v>16</v>
@@ -14696,7 +14697,7 @@
         <v>15</v>
       </c>
       <c r="I376" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J376">
         <v>4.950004950005E-4</v>
@@ -14719,10 +14720,10 @@
     </row>
     <row r="377" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C377" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D377">
         <v>16</v>
@@ -14731,7 +14732,7 @@
         <v>16</v>
       </c>
       <c r="I377" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J377">
         <v>4.950004950005E-4</v>
@@ -14757,10 +14758,10 @@
     </row>
     <row r="378" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C378" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D378">
         <v>16</v>
@@ -14769,7 +14770,7 @@
         <v>17</v>
       </c>
       <c r="I378" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J378">
         <v>4.950004950005E-4</v>
@@ -14795,10 +14796,10 @@
     </row>
     <row r="379" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C379" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D379">
         <v>16</v>
@@ -14807,7 +14808,7 @@
         <v>18</v>
       </c>
       <c r="I379" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="J379">
         <v>4.950004950005E-4</v>
@@ -14831,12 +14832,12 @@
         <v>9.9950499950499996E-3</v>
       </c>
     </row>
-    <row r="380" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C380" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D380">
         <v>16</v>
@@ -14845,7 +14846,7 @@
         <v>19</v>
       </c>
       <c r="I380" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J380">
         <v>4.950004950005E-3</v>
@@ -14866,12 +14867,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="381" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B381" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D381">
         <v>16</v>
@@ -14880,7 +14881,7 @@
         <v>20</v>
       </c>
       <c r="I381" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J381">
         <v>4.950004950005E-3</v>
@@ -14901,12 +14902,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="382" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B382" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C382" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D382">
         <v>16</v>
@@ -14915,7 +14916,7 @@
         <v>21</v>
       </c>
       <c r="I382" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="J382">
         <v>4.950004950005E-3</v>
@@ -14936,12 +14937,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="383" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C383" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D383">
         <v>16</v>
@@ -14950,7 +14951,7 @@
         <v>22</v>
       </c>
       <c r="I383" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J383">
         <v>4.950004950005E-4</v>
@@ -14971,12 +14972,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="384" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C384" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D384">
         <v>16</v>
@@ -14985,7 +14986,7 @@
         <v>23</v>
       </c>
       <c r="I384" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J384">
         <v>4.950004950005E-4</v>
@@ -15006,12 +15007,12 @@
         <v>9.9995049995050007E-3</v>
       </c>
     </row>
-    <row r="385" spans="2:24" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C385" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D385">
         <v>16</v>
@@ -15020,7 +15021,7 @@
         <v>24</v>
       </c>
       <c r="I385" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J385">
         <v>4.950004950005E-4</v>
@@ -15042,13 +15043,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X385" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="vi_bi_la"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
